--- a/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-11-28_42_.xlsx
+++ b/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-11-28_42_.xlsx
@@ -136,7 +136,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -172,7 +172,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -186,7 +186,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
         </is>
       </c>
     </row>
@@ -418,7 +418,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -434,7 +434,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -448,7 +448,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -605,7 +605,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -879,7 +879,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1050,7 +1050,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1324,7 +1324,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1492,7 +1492,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
         </is>
       </c>
     </row>
@@ -12163,7 +12163,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -12179,7 +12179,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -12193,7 +12193,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
         </is>
       </c>
     </row>

--- a/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-11-28_42_.xlsx
+++ b/reports/_TRANSVISSION SHIPPING PVT LTD_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-11-28_42_.xlsx
@@ -17,9 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
+    <numFmt numFmtId="102" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -108,13 +109,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="2" numFmtId="0" fontId="1" fillId="2" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
     </xf>
+    <xf borderId="0" numFmtId="102" fontId="0" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf borderId="3" numFmtId="0" fontId="2" fillId="3" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
@@ -130,43 +132,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.213483146067418"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -176,220 +170,173 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>TRANSVISSION SHIPPING PVT LTD</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>In Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -412,23 +359,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -438,106 +385,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>TRANSVISSION SHIPPING PVT LTD</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>In Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -562,44 +507,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="5.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="8.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -609,232 +552,215 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>TRANSVISSION SHIPPING PVT LTD</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Empty Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -857,23 +783,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -883,106 +809,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>TRANSVISSION SHIPPING PVT LTD</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Empty Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1007,44 +931,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.213483146067418"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="5.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="8.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1054,232 +976,215 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>TRANSVISSION SHIPPING PVT LTD</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Laden Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>CNFCommodity</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Current Depo</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Out Location</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>Total Lot</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>Total Weight</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Out Transport</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>Out Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -1302,23 +1207,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1328,106 +1233,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>TRANSVISSION SHIPPING PVT LTD</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Laden Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1452,41 +1355,39 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA103"/>
+  <dimension ref="A1:AA102"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.58988764044944"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.989887640449439"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.213483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="67.98988764044944"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.213483146067418"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1496,189 +1397,281 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>TRANSVISSION SHIPPING PVT LTD</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Stock Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:96</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>Bay Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Storage Day</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Container Status</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Container Status Name</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
+      <c r="A7" s="0" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>TDRU2270516</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>ASB</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>TVL</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-OCL</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-OCL</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>MV NOU KOLLAN</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>2018/1901</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="d">
+        <v>2018-06-21T00:00:00</v>
       </c>
       <c r="M7" s="4" t="inlineStr">
         <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="0" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0" t="n">
+        <v>1442637</v>
+      </c>
+      <c r="V7" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="X7" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN  &amp; STONE DUST</t>
+        </is>
+      </c>
+      <c r="Y7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>37444</v>
+        <v>37005</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>FCIU2367715</t>
+          <t>TDRU2270516</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -1711,12 +1704,12 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>MV,VASI SUN</t>
+          <t>MV NOU KOLLAN</t>
         </is>
       </c>
       <c r="J8" s="0" t="inlineStr">
         <is>
-          <t>2018/2538</t>
+          <t>2018/1901</t>
         </is>
       </c>
       <c r="K8" s="0" t="inlineStr">
@@ -1724,17 +1717,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L8" s="0" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="M8" s="0" t="inlineStr">
+      <c r="L8" s="4" t="d">
+        <v>2018-06-21T00:00:00</v>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N8" s="0"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="0" t="n">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>0</v>
@@ -1748,21 +1741,21 @@
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
       <c r="U8" s="0" t="n">
-        <v>1471760</v>
+        <v>1442637</v>
       </c>
       <c r="V8" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W8" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X8" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY SCRAP DUST &amp; SCRATCH </t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y8" s="0" t="inlineStr">
@@ -1783,11 +1776,11 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>37444</v>
+        <v>37005</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>FCIU2367715</t>
+          <t>TDRU2270516</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
@@ -1820,12 +1813,12 @@
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>MV,VASI SUN</t>
+          <t>MV NOU KOLLAN</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
         <is>
-          <t>2018/2538</t>
+          <t>2018/1901</t>
         </is>
       </c>
       <c r="K9" s="0" t="inlineStr">
@@ -1833,17 +1826,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L9" s="0" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="M9" s="0" t="inlineStr">
+      <c r="L9" s="4" t="d">
+        <v>2018-06-21T00:00:00</v>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N9" s="0"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="0" t="n">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>0</v>
@@ -1857,21 +1850,21 @@
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
       <c r="U9" s="0" t="n">
-        <v>1471760</v>
+        <v>1442637</v>
       </c>
       <c r="V9" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W9" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X9" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD SCROW MISSING AT VARIOUS PLASE</t>
+          <t>LEFT DOOR BOTTOM GASKET LOOSE 8'</t>
         </is>
       </c>
       <c r="Y9" s="0" t="inlineStr">
@@ -1892,11 +1885,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>37444</v>
+        <v>37322</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>FCIU2367715</t>
+          <t>IPXU3645359</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -1929,12 +1922,12 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>MV,VASI SUN</t>
+          <t>OEL DELTA</t>
         </is>
       </c>
       <c r="J10" s="0" t="inlineStr">
         <is>
-          <t>2018/2538</t>
+          <t>2018/2378</t>
         </is>
       </c>
       <c r="K10" s="0" t="inlineStr">
@@ -1942,17 +1935,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L10" s="0" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="M10" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N10" s="0"/>
+      <c r="L10" s="4" t="d">
+        <v>2018-08-18T00:00:00</v>
+      </c>
+      <c r="M10" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N10" s="4"/>
       <c r="O10" s="0" t="n">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>0</v>
@@ -1966,21 +1959,21 @@
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
       <c r="U10" s="0" t="n">
-        <v>1471760</v>
+        <v>1469355</v>
       </c>
       <c r="V10" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W10" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X10" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY &amp; SCROW MISSING 2 PCS,</t>
         </is>
       </c>
       <c r="Y10" s="0" t="inlineStr">
@@ -2051,15 +2044,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L11" s="0" t="d">
+      <c r="L11" s="4" t="d">
         <v>2018-08-29T00:00:00</v>
       </c>
-      <c r="M11" s="0" t="inlineStr">
+      <c r="M11" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N11" s="0"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="0" t="n">
         <v>91</v>
       </c>
@@ -2089,7 +2082,7 @@
       </c>
       <c r="X11" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD BROKEN 12"X10"</t>
+          <t>FLOOR BOARD DIRTY BY SCRAP DUST &amp; SCRATCH </t>
         </is>
       </c>
       <c r="Y11" s="0" t="inlineStr">
@@ -2160,15 +2153,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L12" s="0" t="d">
+      <c r="L12" s="4" t="d">
         <v>2018-08-29T00:00:00</v>
       </c>
-      <c r="M12" s="0" t="inlineStr">
+      <c r="M12" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N12" s="0"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="0" t="n">
         <v>91</v>
       </c>
@@ -2198,7 +2191,7 @@
       </c>
       <c r="X12" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD BROKEN/ HOLE 8"X6"</t>
+          <t>FLOOR BOARD SCROW MISSING AT VARIOUS PLASE</t>
         </is>
       </c>
       <c r="Y12" s="0" t="inlineStr">
@@ -2269,15 +2262,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L13" s="0" t="d">
+      <c r="L13" s="4" t="d">
         <v>2018-08-29T00:00:00</v>
       </c>
-      <c r="M13" s="0" t="inlineStr">
+      <c r="M13" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N13" s="0"/>
+      <c r="N13" s="4"/>
       <c r="O13" s="0" t="n">
         <v>91</v>
       </c>
@@ -2297,17 +2290,17 @@
       </c>
       <c r="V13" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W13" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X13" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD BROKEN/ CRACKET 12"X8"</t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y13" s="0" t="inlineStr">
@@ -2378,15 +2371,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L14" s="0" t="d">
+      <c r="L14" s="4" t="d">
         <v>2018-08-29T00:00:00</v>
       </c>
-      <c r="M14" s="0" t="inlineStr">
+      <c r="M14" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N14" s="0"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="0" t="n">
         <v>91</v>
       </c>
@@ -2406,17 +2399,17 @@
       </c>
       <c r="V14" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W14" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X14" s="0" t="inlineStr">
         <is>
-          <t>RIGHT DOOR LOCKBAR BENT 2 PCS,</t>
+          <t>FLOOR BOARD BROKEN 12"X10"</t>
         </is>
       </c>
       <c r="Y14" s="0" t="inlineStr">
@@ -2437,11 +2430,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>37446</v>
+        <v>37444</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>FCIU2308707</t>
+          <t>FCIU2367715</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -2487,15 +2480,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L15" s="0" t="d">
+      <c r="L15" s="4" t="d">
         <v>2018-08-29T00:00:00</v>
       </c>
-      <c r="M15" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N15" s="0"/>
+      <c r="M15" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N15" s="4"/>
       <c r="O15" s="0" t="n">
         <v>91</v>
       </c>
@@ -2511,7 +2504,7 @@
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
       <c r="U15" s="0" t="n">
-        <v>1471772</v>
+        <v>1471760</v>
       </c>
       <c r="V15" s="0" t="inlineStr">
         <is>
@@ -2525,7 +2518,7 @@
       </c>
       <c r="X15" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY SCRAP DUST &amp; SCRATCH</t>
+          <t>FLOOR BOARD BROKEN/ HOLE 8"X6"</t>
         </is>
       </c>
       <c r="Y15" s="0" t="inlineStr">
@@ -2546,11 +2539,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>37446</v>
+        <v>37444</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>FCIU2308707</t>
+          <t>FCIU2367715</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -2596,15 +2589,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L16" s="0" t="d">
+      <c r="L16" s="4" t="d">
         <v>2018-08-29T00:00:00</v>
       </c>
-      <c r="M16" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N16" s="0"/>
+      <c r="M16" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N16" s="4"/>
       <c r="O16" s="0" t="n">
         <v>91</v>
       </c>
@@ -2620,7 +2613,7 @@
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
       <c r="U16" s="0" t="n">
-        <v>1471772</v>
+        <v>1471760</v>
       </c>
       <c r="V16" s="0" t="inlineStr">
         <is>
@@ -2634,7 +2627,7 @@
       </c>
       <c r="X16" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD OIL STAIN &amp; CHEMICAL ODOUR,</t>
+          <t>FLOOR BOARD BROKEN/ CRACKET 12"X8"</t>
         </is>
       </c>
       <c r="Y16" s="0" t="inlineStr">
@@ -2655,11 +2648,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>37446</v>
+        <v>37444</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>FCIU2308707</t>
+          <t>FCIU2367715</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -2705,15 +2698,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L17" s="0" t="d">
+      <c r="L17" s="4" t="d">
         <v>2018-08-29T00:00:00</v>
       </c>
-      <c r="M17" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N17" s="0"/>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N17" s="4"/>
       <c r="O17" s="0" t="n">
         <v>91</v>
       </c>
@@ -2729,21 +2722,21 @@
       <c r="S17" s="0"/>
       <c r="T17" s="0"/>
       <c r="U17" s="0" t="n">
-        <v>1471772</v>
+        <v>1471760</v>
       </c>
       <c r="V17" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W17" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X17" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD PLY WOOD LOOSE 24"X18"</t>
+          <t>RIGHT DOOR LOCKBAR BENT 2 PCS,</t>
         </is>
       </c>
       <c r="Y17" s="0" t="inlineStr">
@@ -2814,15 +2807,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L18" s="0" t="d">
+      <c r="L18" s="4" t="d">
         <v>2018-08-29T00:00:00</v>
       </c>
-      <c r="M18" s="0" t="inlineStr">
+      <c r="M18" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N18" s="0"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="0" t="n">
         <v>91</v>
       </c>
@@ -2842,17 +2835,17 @@
       </c>
       <c r="V18" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W18" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X18" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY BY SCRAP DUST &amp; SCRATCH</t>
         </is>
       </c>
       <c r="Y18" s="0" t="inlineStr">
@@ -2923,15 +2916,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L19" s="0" t="d">
+      <c r="L19" s="4" t="d">
         <v>2018-08-29T00:00:00</v>
       </c>
-      <c r="M19" s="0" t="inlineStr">
+      <c r="M19" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N19" s="0"/>
+      <c r="N19" s="4"/>
       <c r="O19" s="0" t="n">
         <v>91</v>
       </c>
@@ -2951,17 +2944,17 @@
       </c>
       <c r="V19" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W19" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X19" s="0" t="inlineStr">
         <is>
-          <t>RIGHT DOOR LOCKBAR BENT 2 PCS</t>
+          <t>FLOOR BOARD OIL STAIN &amp; CHEMICAL ODOUR,</t>
         </is>
       </c>
       <c r="Y19" s="0" t="inlineStr">
@@ -3032,15 +3025,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L20" s="0" t="d">
+      <c r="L20" s="4" t="d">
         <v>2018-08-29T00:00:00</v>
       </c>
-      <c r="M20" s="0" t="inlineStr">
+      <c r="M20" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N20" s="0"/>
+      <c r="N20" s="4"/>
       <c r="O20" s="0" t="n">
         <v>91</v>
       </c>
@@ -3060,17 +3053,17 @@
       </c>
       <c r="V20" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W20" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X20" s="0" t="inlineStr">
         <is>
-          <t>LEFT DOOR LOCKBAR BENT 2 PCS(DOOR UN LOCK)</t>
+          <t>FLOOR BOARD PLY WOOD LOOSE 24"X18"</t>
         </is>
       </c>
       <c r="Y20" s="0" t="inlineStr">
@@ -3141,15 +3134,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L21" s="0" t="d">
+      <c r="L21" s="4" t="d">
         <v>2018-08-29T00:00:00</v>
       </c>
-      <c r="M21" s="0" t="inlineStr">
+      <c r="M21" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N21" s="0"/>
+      <c r="N21" s="4"/>
       <c r="O21" s="0" t="n">
         <v>91</v>
       </c>
@@ -3169,17 +3162,17 @@
       </c>
       <c r="V21" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W21" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X21" s="0" t="inlineStr">
         <is>
-          <t>RIGHT DOOR TOP GASKET CUT 6"</t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y21" s="0" t="inlineStr">
@@ -3250,15 +3243,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L22" s="0" t="d">
+      <c r="L22" s="4" t="d">
         <v>2018-08-29T00:00:00</v>
       </c>
-      <c r="M22" s="0" t="inlineStr">
+      <c r="M22" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N22" s="0"/>
+      <c r="N22" s="4"/>
       <c r="O22" s="0" t="n">
         <v>91</v>
       </c>
@@ -3278,17 +3271,17 @@
       </c>
       <c r="V22" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W22" s="0" t="inlineStr">
         <is>
-          <t>Roof panel-(Roof panel)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X22" s="0" t="inlineStr">
         <is>
-          <t>ROOF PANEL CORRODED &amp; HOLE 1"X1"</t>
+          <t>RIGHT DOOR LOCKBAR BENT 2 PCS</t>
         </is>
       </c>
       <c r="Y22" s="0" t="inlineStr">
@@ -3359,15 +3352,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L23" s="0" t="d">
+      <c r="L23" s="4" t="d">
         <v>2018-08-29T00:00:00</v>
       </c>
-      <c r="M23" s="0" t="inlineStr">
+      <c r="M23" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N23" s="0"/>
+      <c r="N23" s="4"/>
       <c r="O23" s="0" t="n">
         <v>91</v>
       </c>
@@ -3387,17 +3380,17 @@
       </c>
       <c r="V23" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W23" s="0" t="inlineStr">
         <is>
-          <t>Roof panel-(Roof panel)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X23" s="0" t="inlineStr">
         <is>
-          <t>ROOF PANEL RUSTED &amp; CORRODED (BEDLY)</t>
+          <t>LEFT DOOR LOCKBAR BENT 2 PCS(DOOR UN LOCK)</t>
         </is>
       </c>
       <c r="Y23" s="0" t="inlineStr">
@@ -3468,15 +3461,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L24" s="0" t="d">
+      <c r="L24" s="4" t="d">
         <v>2018-08-29T00:00:00</v>
       </c>
-      <c r="M24" s="0" t="inlineStr">
+      <c r="M24" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N24" s="0"/>
+      <c r="N24" s="4"/>
       <c r="O24" s="0" t="n">
         <v>91</v>
       </c>
@@ -3496,17 +3489,17 @@
       </c>
       <c r="V24" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W24" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X24" s="0" t="inlineStr">
         <is>
-          <t>EXTERIOR PANEL RUSTED &amp; CORRODED,</t>
+          <t>RIGHT DOOR TOP GASKET CUT 6"</t>
         </is>
       </c>
       <c r="Y24" s="0" t="inlineStr">
@@ -3527,19 +3520,19 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>37480</v>
+        <v>37446</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>TGHU7553601</t>
+          <t>FCIU2308707</t>
         </is>
       </c>
       <c r="C25" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E25" s="0" t="inlineStr">
@@ -3564,12 +3557,12 @@
       </c>
       <c r="I25" s="0" t="inlineStr">
         <is>
-          <t>CAPE ARAXOS</t>
+          <t>MV,VASI SUN</t>
         </is>
       </c>
       <c r="J25" s="0" t="inlineStr">
         <is>
-          <t>2018/1449</t>
+          <t>2018/2538</t>
         </is>
       </c>
       <c r="K25" s="0" t="inlineStr">
@@ -3577,17 +3570,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L25" s="0" t="d">
-        <v>2018-08-30T00:00:00</v>
-      </c>
-      <c r="M25" s="0" t="inlineStr">
+      <c r="L25" s="4" t="d">
+        <v>2018-08-29T00:00:00</v>
+      </c>
+      <c r="M25" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N25" s="0"/>
+      <c r="N25" s="4"/>
       <c r="O25" s="0" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P25" s="0" t="n">
         <v>0</v>
@@ -3601,21 +3594,21 @@
       <c r="S25" s="0"/>
       <c r="T25" s="0"/>
       <c r="U25" s="0" t="n">
-        <v>1472147</v>
+        <v>1471772</v>
       </c>
       <c r="V25" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W25" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Roof panel-(Roof panel)</t>
         </is>
       </c>
       <c r="X25" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY</t>
+          <t>ROOF PANEL CORRODED &amp; HOLE 1"X1"</t>
         </is>
       </c>
       <c r="Y25" s="0" t="inlineStr">
@@ -3636,19 +3629,19 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>37480</v>
+        <v>37446</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>TGHU7553601</t>
+          <t>FCIU2308707</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E26" s="0" t="inlineStr">
@@ -3673,12 +3666,12 @@
       </c>
       <c r="I26" s="0" t="inlineStr">
         <is>
-          <t>CAPE ARAXOS</t>
+          <t>MV,VASI SUN</t>
         </is>
       </c>
       <c r="J26" s="0" t="inlineStr">
         <is>
-          <t>2018/1449</t>
+          <t>2018/2538</t>
         </is>
       </c>
       <c r="K26" s="0" t="inlineStr">
@@ -3686,17 +3679,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L26" s="0" t="d">
-        <v>2018-08-30T00:00:00</v>
-      </c>
-      <c r="M26" s="0" t="inlineStr">
+      <c r="L26" s="4" t="d">
+        <v>2018-08-29T00:00:00</v>
+      </c>
+      <c r="M26" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N26" s="0"/>
+      <c r="N26" s="4"/>
       <c r="O26" s="0" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P26" s="0" t="n">
         <v>0</v>
@@ -3710,7 +3703,7 @@
       <c r="S26" s="0"/>
       <c r="T26" s="0"/>
       <c r="U26" s="0" t="n">
-        <v>1472147</v>
+        <v>1471772</v>
       </c>
       <c r="V26" s="0" t="inlineStr">
         <is>
@@ -3724,7 +3717,7 @@
       </c>
       <c r="X26" s="0" t="inlineStr">
         <is>
-          <t>FRONT ROOF PANEL HOLE 1"X1"</t>
+          <t>ROOF PANEL RUSTED &amp; CORRODED (BEDLY)</t>
         </is>
       </c>
       <c r="Y26" s="0" t="inlineStr">
@@ -3745,19 +3738,19 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>37480</v>
+        <v>37446</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>TGHU7553601</t>
+          <t>FCIU2308707</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D27" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E27" s="0" t="inlineStr">
@@ -3782,12 +3775,12 @@
       </c>
       <c r="I27" s="0" t="inlineStr">
         <is>
-          <t>CAPE ARAXOS</t>
+          <t>MV,VASI SUN</t>
         </is>
       </c>
       <c r="J27" s="0" t="inlineStr">
         <is>
-          <t>2018/1449</t>
+          <t>2018/2538</t>
         </is>
       </c>
       <c r="K27" s="0" t="inlineStr">
@@ -3795,17 +3788,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L27" s="0" t="d">
-        <v>2018-08-30T00:00:00</v>
-      </c>
-      <c r="M27" s="0" t="inlineStr">
+      <c r="L27" s="4" t="d">
+        <v>2018-08-29T00:00:00</v>
+      </c>
+      <c r="M27" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N27" s="0"/>
+      <c r="N27" s="4"/>
       <c r="O27" s="0" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P27" s="0" t="n">
         <v>0</v>
@@ -3819,7 +3812,7 @@
       <c r="S27" s="0"/>
       <c r="T27" s="0"/>
       <c r="U27" s="0" t="n">
-        <v>1472147</v>
+        <v>1471772</v>
       </c>
       <c r="V27" s="0" t="inlineStr">
         <is>
@@ -3833,7 +3826,7 @@
       </c>
       <c r="X27" s="0" t="inlineStr">
         <is>
-          <t>EXTERIOR PANEL RUSTED</t>
+          <t>EXTERIOR PANEL RUSTED &amp; CORRODED,</t>
         </is>
       </c>
       <c r="Y27" s="0" t="inlineStr">
@@ -3854,19 +3847,19 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>37480</v>
+        <v>37452</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>TGHU7553601</t>
+          <t>FCIU2148070</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E28" s="0" t="inlineStr">
@@ -3891,12 +3884,12 @@
       </c>
       <c r="I28" s="0" t="inlineStr">
         <is>
-          <t>CAPE ARAXOS</t>
+          <t>MV,VASI SUN</t>
         </is>
       </c>
       <c r="J28" s="0" t="inlineStr">
         <is>
-          <t>2018/1449</t>
+          <t>2018/2538</t>
         </is>
       </c>
       <c r="K28" s="0" t="inlineStr">
@@ -3904,17 +3897,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L28" s="0" t="d">
-        <v>2018-08-30T00:00:00</v>
-      </c>
-      <c r="M28" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N28" s="0"/>
+      <c r="L28" s="4" t="d">
+        <v>2018-08-29T00:00:00</v>
+      </c>
+      <c r="M28" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N28" s="4"/>
       <c r="O28" s="0" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P28" s="0" t="n">
         <v>0</v>
@@ -3928,21 +3921,21 @@
       <c r="S28" s="0"/>
       <c r="T28" s="0"/>
       <c r="U28" s="0" t="n">
-        <v>1472147</v>
+        <v>1471822</v>
       </c>
       <c r="V28" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W28" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X28" s="0" t="inlineStr">
         <is>
-          <t>BOTH DOOR PANEL RUSTED</t>
+          <t>FLOOR BOARD DIRTY BY SCRAP DUST &amp; SCRATCH</t>
         </is>
       </c>
       <c r="Y28" s="0" t="inlineStr">
@@ -3963,11 +3956,11 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>37729</v>
+        <v>37452</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>FSCU3652510</t>
+          <t>FCIU2148070</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
@@ -4000,12 +3993,12 @@
       </c>
       <c r="I29" s="0" t="inlineStr">
         <is>
-          <t>X- PRESS MEGHNA</t>
+          <t>MV,VASI SUN</t>
         </is>
       </c>
       <c r="J29" s="0" t="inlineStr">
         <is>
-          <t>2473/2018</t>
+          <t>2018/2538</t>
         </is>
       </c>
       <c r="K29" s="0" t="inlineStr">
@@ -4013,17 +4006,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L29" s="0" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="M29" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N29" s="0"/>
+      <c r="L29" s="4" t="d">
+        <v>2018-08-29T00:00:00</v>
+      </c>
+      <c r="M29" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N29" s="4"/>
       <c r="O29" s="0" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>0</v>
@@ -4037,21 +4030,21 @@
       <c r="S29" s="0"/>
       <c r="T29" s="0"/>
       <c r="U29" s="0" t="n">
-        <v>1474053</v>
+        <v>1471822</v>
       </c>
       <c r="V29" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W29" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X29" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; OIL STAIN</t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y29" s="0" t="inlineStr">
@@ -4072,11 +4065,11 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>37729</v>
+        <v>37452</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>FSCU3652510</t>
+          <t>FCIU2148070</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
@@ -4109,12 +4102,12 @@
       </c>
       <c r="I30" s="0" t="inlineStr">
         <is>
-          <t>X- PRESS MEGHNA</t>
+          <t>MV,VASI SUN</t>
         </is>
       </c>
       <c r="J30" s="0" t="inlineStr">
         <is>
-          <t>2473/2018</t>
+          <t>2018/2538</t>
         </is>
       </c>
       <c r="K30" s="0" t="inlineStr">
@@ -4122,17 +4115,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L30" s="0" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="M30" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N30" s="0"/>
+      <c r="L30" s="4" t="d">
+        <v>2018-08-29T00:00:00</v>
+      </c>
+      <c r="M30" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N30" s="4"/>
       <c r="O30" s="0" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P30" s="0" t="n">
         <v>0</v>
@@ -4146,21 +4139,21 @@
       <c r="S30" s="0"/>
       <c r="T30" s="0"/>
       <c r="U30" s="0" t="n">
-        <v>1474053</v>
+        <v>1471822</v>
       </c>
       <c r="V30" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W30" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X30" s="0" t="inlineStr">
         <is>
-          <t>INTERIRO PANEL DIRTY</t>
+          <t>LEFT DOOR LOCKBAR BENT 1 PCS,</t>
         </is>
       </c>
       <c r="Y30" s="0" t="inlineStr">
@@ -4181,11 +4174,11 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>37813</v>
+        <v>37452</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>FSCU3538160</t>
+          <t>FCIU2148070</t>
         </is>
       </c>
       <c r="C31" s="0" t="n">
@@ -4218,30 +4211,30 @@
       </c>
       <c r="I31" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>MV,VASI SUN</t>
         </is>
       </c>
       <c r="J31" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2018/2538</t>
         </is>
       </c>
       <c r="K31" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L31" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M31" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N31" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L31" s="4" t="d">
+        <v>2018-08-29T00:00:00</v>
+      </c>
+      <c r="M31" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N31" s="4"/>
       <c r="O31" s="0" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P31" s="0" t="n">
         <v>0</v>
@@ -4255,21 +4248,21 @@
       <c r="S31" s="0"/>
       <c r="T31" s="0"/>
       <c r="U31" s="0" t="n">
-        <v>1474583</v>
+        <v>1471822</v>
       </c>
       <c r="V31" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W31" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X31" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
+          <t>LEFT DOOR LOCKBAR HANDLE MISSING 1 PCS</t>
         </is>
       </c>
       <c r="Y31" s="0" t="inlineStr">
@@ -4290,11 +4283,11 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>37814</v>
+        <v>37452</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>CLHU2491008</t>
+          <t>FCIU2148070</t>
         </is>
       </c>
       <c r="C32" s="0" t="n">
@@ -4327,30 +4320,30 @@
       </c>
       <c r="I32" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>MV,VASI SUN</t>
         </is>
       </c>
       <c r="J32" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2018/2538</t>
         </is>
       </c>
       <c r="K32" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L32" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M32" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N32" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L32" s="4" t="d">
+        <v>2018-08-29T00:00:00</v>
+      </c>
+      <c r="M32" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N32" s="4"/>
       <c r="O32" s="0" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P32" s="0" t="n">
         <v>0</v>
@@ -4364,21 +4357,21 @@
       <c r="S32" s="0"/>
       <c r="T32" s="0"/>
       <c r="U32" s="0" t="n">
-        <v>1474584</v>
+        <v>1471822</v>
       </c>
       <c r="V32" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W32" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X32" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
+          <t>RIGHT DOOR LOCKBAR HANDLE MISSING 1 PCS</t>
         </is>
       </c>
       <c r="Y32" s="0" t="inlineStr">
@@ -4399,11 +4392,11 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>37815</v>
+        <v>37452</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>EOLU2237895</t>
+          <t>FCIU2148070</t>
         </is>
       </c>
       <c r="C33" s="0" t="n">
@@ -4436,30 +4429,30 @@
       </c>
       <c r="I33" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>MV,VASI SUN</t>
         </is>
       </c>
       <c r="J33" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2018/2538</t>
         </is>
       </c>
       <c r="K33" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L33" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M33" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N33" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L33" s="4" t="d">
+        <v>2018-08-29T00:00:00</v>
+      </c>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N33" s="4"/>
       <c r="O33" s="0" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P33" s="0" t="n">
         <v>0</v>
@@ -4473,21 +4466,21 @@
       <c r="S33" s="0"/>
       <c r="T33" s="0"/>
       <c r="U33" s="0" t="n">
-        <v>1474585</v>
+        <v>1471822</v>
       </c>
       <c r="V33" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W33" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X33" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
+          <t>RIGHT DOOR LOCKBAR BENT 2 PCS</t>
         </is>
       </c>
       <c r="Y33" s="0" t="inlineStr">
@@ -4508,11 +4501,11 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>37816</v>
+        <v>37452</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>UESU2312270</t>
+          <t>FCIU2148070</t>
         </is>
       </c>
       <c r="C34" s="0" t="n">
@@ -4545,30 +4538,30 @@
       </c>
       <c r="I34" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>MV,VASI SUN</t>
         </is>
       </c>
       <c r="J34" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2018/2538</t>
         </is>
       </c>
       <c r="K34" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L34" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M34" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N34" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L34" s="4" t="d">
+        <v>2018-08-29T00:00:00</v>
+      </c>
+      <c r="M34" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N34" s="4"/>
       <c r="O34" s="0" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>0</v>
@@ -4582,21 +4575,21 @@
       <c r="S34" s="0"/>
       <c r="T34" s="0"/>
       <c r="U34" s="0" t="n">
-        <v>1474586</v>
+        <v>1471822</v>
       </c>
       <c r="V34" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W34" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X34" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
+          <t>LEFT DOOR TOP GASKET MISSING 3"</t>
         </is>
       </c>
       <c r="Y34" s="0" t="inlineStr">
@@ -4617,11 +4610,11 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>37816</v>
+        <v>37452</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>UESU2312270</t>
+          <t>FCIU2148070</t>
         </is>
       </c>
       <c r="C35" s="0" t="n">
@@ -4654,30 +4647,30 @@
       </c>
       <c r="I35" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>MV,VASI SUN</t>
         </is>
       </c>
       <c r="J35" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2018/2538</t>
         </is>
       </c>
       <c r="K35" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L35" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M35" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N35" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L35" s="4" t="d">
+        <v>2018-08-29T00:00:00</v>
+      </c>
+      <c r="M35" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N35" s="4"/>
       <c r="O35" s="0" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P35" s="0" t="n">
         <v>0</v>
@@ -4691,7 +4684,7 @@
       <c r="S35" s="0"/>
       <c r="T35" s="0"/>
       <c r="U35" s="0" t="n">
-        <v>1474586</v>
+        <v>1471822</v>
       </c>
       <c r="V35" s="0" t="inlineStr">
         <is>
@@ -4700,12 +4693,12 @@
       </c>
       <c r="W35" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Roof panel-(Roof panel)</t>
         </is>
       </c>
       <c r="X35" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>ROOF PANEL RUSTED &amp; CORRODED,</t>
         </is>
       </c>
       <c r="Y35" s="0" t="inlineStr">
@@ -4726,11 +4719,11 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>37817</v>
+        <v>37467</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>MAXU2414282</t>
+          <t>CRXU3232266</t>
         </is>
       </c>
       <c r="C36" s="0" t="n">
@@ -4763,30 +4756,30 @@
       </c>
       <c r="I36" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>MV,VASI SUN</t>
         </is>
       </c>
       <c r="J36" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2018/2538</t>
         </is>
       </c>
       <c r="K36" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L36" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M36" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N36" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L36" s="4" t="d">
+        <v>2018-08-29T00:00:00</v>
+      </c>
+      <c r="M36" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N36" s="4"/>
       <c r="O36" s="0" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P36" s="0" t="n">
         <v>0</v>
@@ -4800,7 +4793,7 @@
       <c r="S36" s="0"/>
       <c r="T36" s="0"/>
       <c r="U36" s="0" t="n">
-        <v>1474587</v>
+        <v>1471878</v>
       </c>
       <c r="V36" s="0" t="inlineStr">
         <is>
@@ -4814,7 +4807,7 @@
       </c>
       <c r="X36" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
+          <t>FLOOR BOARD DIRTY BY SCRAP DUST &amp; SCRATCH</t>
         </is>
       </c>
       <c r="Y36" s="0" t="inlineStr">
@@ -4835,11 +4828,11 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>37817</v>
+        <v>37467</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>MAXU2414282</t>
+          <t>CRXU3232266</t>
         </is>
       </c>
       <c r="C37" s="0" t="n">
@@ -4872,30 +4865,30 @@
       </c>
       <c r="I37" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>MV,VASI SUN</t>
         </is>
       </c>
       <c r="J37" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2018/2538</t>
         </is>
       </c>
       <c r="K37" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L37" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M37" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N37" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L37" s="4" t="d">
+        <v>2018-08-29T00:00:00</v>
+      </c>
+      <c r="M37" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N37" s="4"/>
       <c r="O37" s="0" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P37" s="0" t="n">
         <v>0</v>
@@ -4909,21 +4902,21 @@
       <c r="S37" s="0"/>
       <c r="T37" s="0"/>
       <c r="U37" s="0" t="n">
-        <v>1474587</v>
+        <v>1471878</v>
       </c>
       <c r="V37" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W37" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X37" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>FLOOR BOARD BROKEN 60'X60'</t>
         </is>
       </c>
       <c r="Y37" s="0" t="inlineStr">
@@ -4944,11 +4937,11 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>37818</v>
+        <v>37467</v>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>TTNU3773928</t>
+          <t>CRXU3232266</t>
         </is>
       </c>
       <c r="C38" s="0" t="n">
@@ -4981,30 +4974,30 @@
       </c>
       <c r="I38" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>MV,VASI SUN</t>
         </is>
       </c>
       <c r="J38" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2018/2538</t>
         </is>
       </c>
       <c r="K38" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L38" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M38" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N38" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L38" s="4" t="d">
+        <v>2018-08-29T00:00:00</v>
+      </c>
+      <c r="M38" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N38" s="4"/>
       <c r="O38" s="0" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P38" s="0" t="n">
         <v>0</v>
@@ -5018,21 +5011,21 @@
       <c r="S38" s="0"/>
       <c r="T38" s="0"/>
       <c r="U38" s="0" t="n">
-        <v>1474588</v>
+        <v>1471878</v>
       </c>
       <c r="V38" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W38" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X38" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
+          <t>INTERIOR PANEL DIRTY &amp; SCRATCH</t>
         </is>
       </c>
       <c r="Y38" s="0" t="inlineStr">
@@ -5053,19 +5046,19 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>37818</v>
+        <v>37480</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>TTNU3773928</t>
+          <t>TGHU7553601</t>
         </is>
       </c>
       <c r="C39" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D39" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E39" s="0" t="inlineStr">
@@ -5090,30 +5083,30 @@
       </c>
       <c r="I39" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>CAPE ARAXOS</t>
         </is>
       </c>
       <c r="J39" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2018/1449</t>
         </is>
       </c>
       <c r="K39" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L39" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M39" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N39" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L39" s="4" t="d">
+        <v>2018-08-30T00:00:00</v>
+      </c>
+      <c r="M39" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N39" s="4"/>
       <c r="O39" s="0" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P39" s="0" t="n">
         <v>0</v>
@@ -5127,21 +5120,21 @@
       <c r="S39" s="0"/>
       <c r="T39" s="0"/>
       <c r="U39" s="0" t="n">
-        <v>1474588</v>
+        <v>1472147</v>
       </c>
       <c r="V39" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W39" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X39" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
       <c r="Y39" s="0" t="inlineStr">
@@ -5162,19 +5155,19 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>37819</v>
+        <v>37480</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>HLXU2312592</t>
+          <t>TGHU7553601</t>
         </is>
       </c>
       <c r="C40" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E40" s="0" t="inlineStr">
@@ -5199,30 +5192,30 @@
       </c>
       <c r="I40" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>CAPE ARAXOS</t>
         </is>
       </c>
       <c r="J40" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2018/1449</t>
         </is>
       </c>
       <c r="K40" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L40" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M40" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N40" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L40" s="4" t="d">
+        <v>2018-08-30T00:00:00</v>
+      </c>
+      <c r="M40" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N40" s="4"/>
       <c r="O40" s="0" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P40" s="0" t="n">
         <v>0</v>
@@ -5236,21 +5229,21 @@
       <c r="S40" s="0"/>
       <c r="T40" s="0"/>
       <c r="U40" s="0" t="n">
-        <v>1474589</v>
+        <v>1472147</v>
       </c>
       <c r="V40" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W40" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Roof panel-(Roof panel)</t>
         </is>
       </c>
       <c r="X40" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
+          <t>FRONT ROOF PANEL HOLE 1"X1"</t>
         </is>
       </c>
       <c r="Y40" s="0" t="inlineStr">
@@ -5271,19 +5264,19 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>37820</v>
+        <v>37480</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>TLHU3227629</t>
+          <t>TGHU7553601</t>
         </is>
       </c>
       <c r="C41" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D41" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E41" s="0" t="inlineStr">
@@ -5308,30 +5301,30 @@
       </c>
       <c r="I41" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>CAPE ARAXOS</t>
         </is>
       </c>
       <c r="J41" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2018/1449</t>
         </is>
       </c>
       <c r="K41" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L41" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M41" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N41" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L41" s="4" t="d">
+        <v>2018-08-30T00:00:00</v>
+      </c>
+      <c r="M41" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N41" s="4"/>
       <c r="O41" s="0" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P41" s="0" t="n">
         <v>0</v>
@@ -5345,21 +5338,21 @@
       <c r="S41" s="0"/>
       <c r="T41" s="0"/>
       <c r="U41" s="0" t="n">
-        <v>1474590</v>
+        <v>1472147</v>
       </c>
       <c r="V41" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W41" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X41" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
+          <t>EXTERIOR PANEL RUSTED</t>
         </is>
       </c>
       <c r="Y41" s="0" t="inlineStr">
@@ -5380,19 +5373,19 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>37821</v>
+        <v>37480</v>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>PRSU2193280</t>
+          <t>TGHU7553601</t>
         </is>
       </c>
       <c r="C42" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D42" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E42" s="0" t="inlineStr">
@@ -5417,30 +5410,30 @@
       </c>
       <c r="I42" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>CAPE ARAXOS</t>
         </is>
       </c>
       <c r="J42" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2018/1449</t>
         </is>
       </c>
       <c r="K42" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L42" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M42" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N42" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L42" s="4" t="d">
+        <v>2018-08-30T00:00:00</v>
+      </c>
+      <c r="M42" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N42" s="4"/>
       <c r="O42" s="0" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P42" s="0" t="n">
         <v>0</v>
@@ -5454,21 +5447,21 @@
       <c r="S42" s="0"/>
       <c r="T42" s="0"/>
       <c r="U42" s="0" t="n">
-        <v>1474592</v>
+        <v>1472147</v>
       </c>
       <c r="V42" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W42" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X42" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
+          <t>BOTH DOOR PANEL RUSTED</t>
         </is>
       </c>
       <c r="Y42" s="0" t="inlineStr">
@@ -5489,11 +5482,11 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>37879</v>
+        <v>37517</v>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>CRXU3284906</t>
+          <t>FSCU3422992</t>
         </is>
       </c>
       <c r="C43" s="0" t="n">
@@ -5526,30 +5519,30 @@
       </c>
       <c r="I43" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>CAPE ARAXOS</t>
         </is>
       </c>
       <c r="J43" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2018/1449</t>
         </is>
       </c>
       <c r="K43" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L43" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M43" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N43" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L43" s="4" t="d">
+        <v>2018-08-31T00:00:00</v>
+      </c>
+      <c r="M43" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N43" s="4"/>
       <c r="O43" s="0" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P43" s="0" t="n">
         <v>0</v>
@@ -5563,7 +5556,7 @@
       <c r="S43" s="0"/>
       <c r="T43" s="0"/>
       <c r="U43" s="0" t="n">
-        <v>1475011</v>
+        <v>1472624</v>
       </c>
       <c r="V43" s="0" t="inlineStr">
         <is>
@@ -5572,12 +5565,12 @@
       </c>
       <c r="W43" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X43" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  BITUMEN  STAIN</t>
+          <t>FLOOR BOARD DIRTY BY OIL SPOT &amp; MUD DUST</t>
         </is>
       </c>
       <c r="Y43" s="0" t="inlineStr">
@@ -5598,11 +5591,11 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>37880</v>
+        <v>37517</v>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>GVDU2024337</t>
+          <t>FSCU3422992</t>
         </is>
       </c>
       <c r="C44" s="0" t="n">
@@ -5635,30 +5628,30 @@
       </c>
       <c r="I44" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>CAPE ARAXOS</t>
         </is>
       </c>
       <c r="J44" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2018/1449</t>
         </is>
       </c>
       <c r="K44" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L44" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M44" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N44" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L44" s="4" t="d">
+        <v>2018-08-31T00:00:00</v>
+      </c>
+      <c r="M44" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N44" s="4"/>
       <c r="O44" s="0" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P44" s="0" t="n">
         <v>0</v>
@@ -5672,21 +5665,21 @@
       <c r="S44" s="0"/>
       <c r="T44" s="0"/>
       <c r="U44" s="0" t="n">
-        <v>1475012</v>
+        <v>1472624</v>
       </c>
       <c r="V44" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W44" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X44" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  BITUMEN  STAIN</t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y44" s="0" t="inlineStr">
@@ -5707,19 +5700,19 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>37880</v>
+        <v>37706</v>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>GVDU2024337</t>
+          <t>TGHU7029955</t>
         </is>
       </c>
       <c r="C45" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D45" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E45" s="0" t="inlineStr">
@@ -5744,30 +5737,30 @@
       </c>
       <c r="I45" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>CAPE ARAXOS</t>
         </is>
       </c>
       <c r="J45" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2018/1449</t>
         </is>
       </c>
       <c r="K45" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L45" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M45" s="0" t="inlineStr">
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L45" s="4" t="d">
+        <v>2018-09-03T00:00:00</v>
+      </c>
+      <c r="M45" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N45" s="0"/>
+      <c r="N45" s="4"/>
       <c r="O45" s="0" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P45" s="0" t="n">
         <v>0</v>
@@ -5781,21 +5774,21 @@
       <c r="S45" s="0"/>
       <c r="T45" s="0"/>
       <c r="U45" s="0" t="n">
-        <v>1475012</v>
+        <v>1473995</v>
       </c>
       <c r="V45" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W45" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X45" s="0" t="inlineStr">
         <is>
-          <t>INTERIRO PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
         </is>
       </c>
       <c r="Y45" s="0" t="inlineStr">
@@ -5816,19 +5809,19 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>37881</v>
+        <v>37706</v>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>FCIU2433170</t>
+          <t>TGHU7029955</t>
         </is>
       </c>
       <c r="C46" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D46" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E46" s="0" t="inlineStr">
@@ -5853,30 +5846,30 @@
       </c>
       <c r="I46" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>CAPE ARAXOS</t>
         </is>
       </c>
       <c r="J46" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2018/1449</t>
         </is>
       </c>
       <c r="K46" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L46" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M46" s="0" t="inlineStr">
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L46" s="4" t="d">
+        <v>2018-09-03T00:00:00</v>
+      </c>
+      <c r="M46" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N46" s="0"/>
+      <c r="N46" s="4"/>
       <c r="O46" s="0" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P46" s="0" t="n">
         <v>0</v>
@@ -5890,21 +5883,21 @@
       <c r="S46" s="0"/>
       <c r="T46" s="0"/>
       <c r="U46" s="0" t="n">
-        <v>1475013</v>
+        <v>1473995</v>
       </c>
       <c r="V46" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W46" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X46" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  BITUMEN  STAIN</t>
+          <t>RIGHT DOOR LOCKBAR BENT 1 PCS,</t>
         </is>
       </c>
       <c r="Y46" s="0" t="inlineStr">
@@ -5925,19 +5918,19 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>37881</v>
+        <v>37715</v>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>FCIU2433170</t>
+          <t>BHCU4934452</t>
         </is>
       </c>
       <c r="C47" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D47" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E47" s="0" t="inlineStr">
@@ -5962,30 +5955,30 @@
       </c>
       <c r="I47" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>CAPE ARAXOS</t>
         </is>
       </c>
       <c r="J47" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2018/1449</t>
         </is>
       </c>
       <c r="K47" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L47" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M47" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N47" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L47" s="4" t="d">
+        <v>2018-09-03T00:00:00</v>
+      </c>
+      <c r="M47" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N47" s="4"/>
       <c r="O47" s="0" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P47" s="0" t="n">
         <v>0</v>
@@ -5999,21 +5992,21 @@
       <c r="S47" s="0"/>
       <c r="T47" s="0"/>
       <c r="U47" s="0" t="n">
-        <v>1475013</v>
+        <v>1474021</v>
       </c>
       <c r="V47" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W47" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X47" s="0" t="inlineStr">
         <is>
-          <t>INTERIRO PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; OIL STAIN</t>
         </is>
       </c>
       <c r="Y47" s="0" t="inlineStr">
@@ -6034,19 +6027,19 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>37882</v>
+        <v>37715</v>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>BHCU3030039</t>
+          <t>BHCU4934452</t>
         </is>
       </c>
       <c r="C48" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D48" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E48" s="0" t="inlineStr">
@@ -6071,30 +6064,30 @@
       </c>
       <c r="I48" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>CAPE ARAXOS</t>
         </is>
       </c>
       <c r="J48" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2018/1449</t>
         </is>
       </c>
       <c r="K48" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L48" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M48" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N48" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L48" s="4" t="d">
+        <v>2018-09-03T00:00:00</v>
+      </c>
+      <c r="M48" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N48" s="4"/>
       <c r="O48" s="0" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P48" s="0" t="n">
         <v>0</v>
@@ -6108,21 +6101,21 @@
       <c r="S48" s="0"/>
       <c r="T48" s="0"/>
       <c r="U48" s="0" t="n">
-        <v>1475014</v>
+        <v>1474021</v>
       </c>
       <c r="V48" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W48" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X48" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  BITUMEN  STAIN</t>
+          <t>ROOF PANLE CORRODED HOLE 2" AT 04PLS</t>
         </is>
       </c>
       <c r="Y48" s="0" t="inlineStr">
@@ -6143,11 +6136,11 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>37882</v>
+        <v>37729</v>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>BHCU3030039</t>
+          <t>FSCU3652510</t>
         </is>
       </c>
       <c r="C49" s="0" t="n">
@@ -6180,30 +6173,30 @@
       </c>
       <c r="I49" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>X- PRESS MEGHNA</t>
         </is>
       </c>
       <c r="J49" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2473/2018</t>
         </is>
       </c>
       <c r="K49" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L49" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M49" s="0" t="inlineStr">
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L49" s="4" t="d">
+        <v>2018-09-03T00:00:00</v>
+      </c>
+      <c r="M49" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N49" s="0"/>
+      <c r="N49" s="4"/>
       <c r="O49" s="0" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P49" s="0" t="n">
         <v>0</v>
@@ -6217,21 +6210,21 @@
       <c r="S49" s="0"/>
       <c r="T49" s="0"/>
       <c r="U49" s="0" t="n">
-        <v>1475014</v>
+        <v>1474053</v>
       </c>
       <c r="V49" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W49" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X49" s="0" t="inlineStr">
         <is>
-          <t>INTERIRO PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; OIL STAIN</t>
         </is>
       </c>
       <c r="Y49" s="0" t="inlineStr">
@@ -6252,11 +6245,11 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>37883</v>
+        <v>37729</v>
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>WHLU2583130</t>
+          <t>FSCU3652510</t>
         </is>
       </c>
       <c r="C50" s="0" t="n">
@@ -6289,30 +6282,30 @@
       </c>
       <c r="I50" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>X- PRESS MEGHNA</t>
         </is>
       </c>
       <c r="J50" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2473/2018</t>
         </is>
       </c>
       <c r="K50" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L50" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M50" s="0" t="inlineStr">
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L50" s="4" t="d">
+        <v>2018-09-03T00:00:00</v>
+      </c>
+      <c r="M50" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N50" s="0"/>
+      <c r="N50" s="4"/>
       <c r="O50" s="0" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P50" s="0" t="n">
         <v>0</v>
@@ -6326,21 +6319,21 @@
       <c r="S50" s="0"/>
       <c r="T50" s="0"/>
       <c r="U50" s="0" t="n">
-        <v>1475015</v>
+        <v>1474053</v>
       </c>
       <c r="V50" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W50" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X50" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  BITUMEN  STAIN</t>
+          <t>INTERIRO PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y50" s="0" t="inlineStr">
@@ -6361,11 +6354,11 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>37883</v>
+        <v>37802</v>
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>WHLU2583130</t>
+          <t>FSCU3579528</t>
         </is>
       </c>
       <c r="C51" s="0" t="n">
@@ -6411,17 +6404,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L51" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M51" s="0" t="inlineStr">
+      <c r="L51" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M51" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N51" s="0"/>
+      <c r="N51" s="4"/>
       <c r="O51" s="0" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P51" s="0" t="n">
         <v>0</v>
@@ -6435,21 +6428,21 @@
       <c r="S51" s="0"/>
       <c r="T51" s="0"/>
       <c r="U51" s="0" t="n">
-        <v>1475015</v>
+        <v>1474572</v>
       </c>
       <c r="V51" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W51" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X51" s="0" t="inlineStr">
         <is>
-          <t>INTERIRO PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
         </is>
       </c>
       <c r="Y51" s="0" t="inlineStr">
@@ -6470,11 +6463,11 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>37884</v>
+        <v>37802</v>
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>WHLU2613511</t>
+          <t>FSCU3579528</t>
         </is>
       </c>
       <c r="C52" s="0" t="n">
@@ -6520,17 +6513,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L52" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M52" s="0" t="inlineStr">
+      <c r="L52" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M52" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N52" s="0"/>
+      <c r="N52" s="4"/>
       <c r="O52" s="0" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P52" s="0" t="n">
         <v>0</v>
@@ -6544,21 +6537,21 @@
       <c r="S52" s="0"/>
       <c r="T52" s="0"/>
       <c r="U52" s="0" t="n">
-        <v>1475016</v>
+        <v>1474572</v>
       </c>
       <c r="V52" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W52" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X52" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  BITUMEN  STAIN</t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y52" s="0" t="inlineStr">
@@ -6579,11 +6572,11 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>37885</v>
+        <v>37803</v>
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>BHCU3056476</t>
+          <t>GESU2999199</t>
         </is>
       </c>
       <c r="C53" s="0" t="n">
@@ -6629,17 +6622,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L53" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M53" s="0" t="inlineStr">
+      <c r="L53" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M53" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N53" s="0"/>
+      <c r="N53" s="4"/>
       <c r="O53" s="0" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P53" s="0" t="n">
         <v>0</v>
@@ -6653,7 +6646,7 @@
       <c r="S53" s="0"/>
       <c r="T53" s="0"/>
       <c r="U53" s="0" t="n">
-        <v>1475017</v>
+        <v>1474573</v>
       </c>
       <c r="V53" s="0" t="inlineStr">
         <is>
@@ -6667,7 +6660,7 @@
       </c>
       <c r="X53" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  BITUMEN  STAIN</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
         </is>
       </c>
       <c r="Y53" s="0" t="inlineStr">
@@ -6688,11 +6681,11 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>37885</v>
+        <v>37803</v>
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>BHCU3056476</t>
+          <t>GESU2999199</t>
         </is>
       </c>
       <c r="C54" s="0" t="n">
@@ -6738,17 +6731,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L54" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M54" s="0" t="inlineStr">
+      <c r="L54" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M54" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N54" s="0"/>
+      <c r="N54" s="4"/>
       <c r="O54" s="0" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P54" s="0" t="n">
         <v>0</v>
@@ -6762,7 +6755,7 @@
       <c r="S54" s="0"/>
       <c r="T54" s="0"/>
       <c r="U54" s="0" t="n">
-        <v>1475017</v>
+        <v>1474573</v>
       </c>
       <c r="V54" s="0" t="inlineStr">
         <is>
@@ -6776,7 +6769,7 @@
       </c>
       <c r="X54" s="0" t="inlineStr">
         <is>
-          <t>INTERIRO PANEL DIRTY</t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y54" s="0" t="inlineStr">
@@ -6797,11 +6790,11 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>38064</v>
+        <v>37804</v>
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>CTRU7962449</t>
+          <t>YMLU3046415</t>
         </is>
       </c>
       <c r="C55" s="0" t="n">
@@ -6809,7 +6802,7 @@
       </c>
       <c r="D55" s="0" t="inlineStr">
         <is>
-          <t>OT</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E55" s="0" t="inlineStr">
@@ -6834,30 +6827,30 @@
       </c>
       <c r="I55" s="0" t="inlineStr">
         <is>
-          <t>CAPE ARAXOS</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J55" s="0" t="inlineStr">
         <is>
-          <t>2018/1449</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K55" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L55" s="0" t="d">
-        <v>2018-09-07T00:00:00</v>
-      </c>
-      <c r="M55" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N55" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L55" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M55" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N55" s="4"/>
       <c r="O55" s="0" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P55" s="0" t="n">
         <v>0</v>
@@ -6871,7 +6864,7 @@
       <c r="S55" s="0"/>
       <c r="T55" s="0"/>
       <c r="U55" s="0" t="n">
-        <v>1476016</v>
+        <v>1474574</v>
       </c>
       <c r="V55" s="0" t="inlineStr">
         <is>
@@ -6885,7 +6878,7 @@
       </c>
       <c r="X55" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; OIL STAIN</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN</t>
         </is>
       </c>
       <c r="Y55" s="0" t="inlineStr">
@@ -6906,11 +6899,11 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>38064</v>
+        <v>37804</v>
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>CTRU7962449</t>
+          <t>YMLU3046415</t>
         </is>
       </c>
       <c r="C56" s="0" t="n">
@@ -6918,7 +6911,7 @@
       </c>
       <c r="D56" s="0" t="inlineStr">
         <is>
-          <t>OT</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E56" s="0" t="inlineStr">
@@ -6943,30 +6936,30 @@
       </c>
       <c r="I56" s="0" t="inlineStr">
         <is>
-          <t>CAPE ARAXOS</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J56" s="0" t="inlineStr">
         <is>
-          <t>2018/1449</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K56" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L56" s="0" t="d">
-        <v>2018-09-07T00:00:00</v>
-      </c>
-      <c r="M56" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N56" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L56" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M56" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N56" s="4"/>
       <c r="O56" s="0" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P56" s="0" t="n">
         <v>0</v>
@@ -6980,7 +6973,7 @@
       <c r="S56" s="0"/>
       <c r="T56" s="0"/>
       <c r="U56" s="0" t="n">
-        <v>1476016</v>
+        <v>1474574</v>
       </c>
       <c r="V56" s="0" t="inlineStr">
         <is>
@@ -6994,7 +6987,7 @@
       </c>
       <c r="X56" s="0" t="inlineStr">
         <is>
-          <t>ROOF BAR 10PCS,TARPULIN 01 PC,CORD 01 PC TARPULIN CUT VARIOUS PLS </t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y56" s="0" t="inlineStr">
@@ -7015,11 +7008,11 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>37452</v>
+        <v>37805</v>
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>FCIU2148070</t>
+          <t>FSCU3439980</t>
         </is>
       </c>
       <c r="C57" s="0" t="n">
@@ -7052,30 +7045,30 @@
       </c>
       <c r="I57" s="0" t="inlineStr">
         <is>
-          <t>MV,VASI SUN</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J57" s="0" t="inlineStr">
         <is>
-          <t>2018/2538</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K57" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L57" s="0" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="M57" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N57" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L57" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M57" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N57" s="4"/>
       <c r="O57" s="0" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P57" s="0" t="n">
         <v>0</v>
@@ -7089,7 +7082,7 @@
       <c r="S57" s="0"/>
       <c r="T57" s="0"/>
       <c r="U57" s="0" t="n">
-        <v>1471822</v>
+        <v>1474575</v>
       </c>
       <c r="V57" s="0" t="inlineStr">
         <is>
@@ -7098,12 +7091,12 @@
       </c>
       <c r="W57" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X57" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY SCRAP DUST &amp; SCRATCH</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
         </is>
       </c>
       <c r="Y57" s="0" t="inlineStr">
@@ -7124,11 +7117,11 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>37452</v>
+        <v>37805</v>
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>FCIU2148070</t>
+          <t>FSCU3439980</t>
         </is>
       </c>
       <c r="C58" s="0" t="n">
@@ -7161,30 +7154,30 @@
       </c>
       <c r="I58" s="0" t="inlineStr">
         <is>
-          <t>MV,VASI SUN</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J58" s="0" t="inlineStr">
         <is>
-          <t>2018/2538</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K58" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L58" s="0" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="M58" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N58" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L58" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M58" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N58" s="4"/>
       <c r="O58" s="0" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P58" s="0" t="n">
         <v>0</v>
@@ -7198,7 +7191,7 @@
       <c r="S58" s="0"/>
       <c r="T58" s="0"/>
       <c r="U58" s="0" t="n">
-        <v>1471822</v>
+        <v>1474575</v>
       </c>
       <c r="V58" s="0" t="inlineStr">
         <is>
@@ -7233,11 +7226,11 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>37452</v>
+        <v>37806</v>
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>FCIU2148070</t>
+          <t>GESU2095709</t>
         </is>
       </c>
       <c r="C59" s="0" t="n">
@@ -7270,30 +7263,30 @@
       </c>
       <c r="I59" s="0" t="inlineStr">
         <is>
-          <t>MV,VASI SUN</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J59" s="0" t="inlineStr">
         <is>
-          <t>2018/2538</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K59" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L59" s="0" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="M59" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N59" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L59" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M59" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N59" s="4"/>
       <c r="O59" s="0" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P59" s="0" t="n">
         <v>0</v>
@@ -7307,21 +7300,21 @@
       <c r="S59" s="0"/>
       <c r="T59" s="0"/>
       <c r="U59" s="0" t="n">
-        <v>1471822</v>
+        <v>1474576</v>
       </c>
       <c r="V59" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W59" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X59" s="0" t="inlineStr">
         <is>
-          <t>LEFT DOOR LOCKBAR BENT 1 PCS,</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN</t>
         </is>
       </c>
       <c r="Y59" s="0" t="inlineStr">
@@ -7342,11 +7335,11 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>37452</v>
+        <v>37806</v>
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>FCIU2148070</t>
+          <t>GESU2095709</t>
         </is>
       </c>
       <c r="C60" s="0" t="n">
@@ -7379,30 +7372,30 @@
       </c>
       <c r="I60" s="0" t="inlineStr">
         <is>
-          <t>MV,VASI SUN</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J60" s="0" t="inlineStr">
         <is>
-          <t>2018/2538</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K60" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L60" s="0" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="M60" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N60" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L60" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M60" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N60" s="4"/>
       <c r="O60" s="0" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P60" s="0" t="n">
         <v>0</v>
@@ -7416,21 +7409,21 @@
       <c r="S60" s="0"/>
       <c r="T60" s="0"/>
       <c r="U60" s="0" t="n">
-        <v>1471822</v>
+        <v>1474576</v>
       </c>
       <c r="V60" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W60" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X60" s="0" t="inlineStr">
         <is>
-          <t>LEFT DOOR LOCKBAR HANDLE MISSING 1 PCS</t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y60" s="0" t="inlineStr">
@@ -7451,11 +7444,11 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>37452</v>
+        <v>37807</v>
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>FCIU2148070</t>
+          <t>TGHU2833410</t>
         </is>
       </c>
       <c r="C61" s="0" t="n">
@@ -7488,30 +7481,30 @@
       </c>
       <c r="I61" s="0" t="inlineStr">
         <is>
-          <t>MV,VASI SUN</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J61" s="0" t="inlineStr">
         <is>
-          <t>2018/2538</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K61" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L61" s="0" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="M61" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N61" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L61" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M61" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N61" s="4"/>
       <c r="O61" s="0" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P61" s="0" t="n">
         <v>0</v>
@@ -7525,21 +7518,21 @@
       <c r="S61" s="0"/>
       <c r="T61" s="0"/>
       <c r="U61" s="0" t="n">
-        <v>1471822</v>
+        <v>1474577</v>
       </c>
       <c r="V61" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W61" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X61" s="0" t="inlineStr">
         <is>
-          <t>RIGHT DOOR LOCKBAR HANDLE MISSING 1 PCS</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
         </is>
       </c>
       <c r="Y61" s="0" t="inlineStr">
@@ -7560,11 +7553,11 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>37452</v>
+        <v>37808</v>
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>FCIU2148070</t>
+          <t>FSCU3374359</t>
         </is>
       </c>
       <c r="C62" s="0" t="n">
@@ -7597,30 +7590,30 @@
       </c>
       <c r="I62" s="0" t="inlineStr">
         <is>
-          <t>MV,VASI SUN</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J62" s="0" t="inlineStr">
         <is>
-          <t>2018/2538</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K62" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L62" s="0" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="M62" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N62" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L62" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M62" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N62" s="4"/>
       <c r="O62" s="0" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P62" s="0" t="n">
         <v>0</v>
@@ -7634,21 +7627,21 @@
       <c r="S62" s="0"/>
       <c r="T62" s="0"/>
       <c r="U62" s="0" t="n">
-        <v>1471822</v>
+        <v>1474578</v>
       </c>
       <c r="V62" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W62" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X62" s="0" t="inlineStr">
         <is>
-          <t>RIGHT DOOR LOCKBAR BENT 2 PCS</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
         </is>
       </c>
       <c r="Y62" s="0" t="inlineStr">
@@ -7669,11 +7662,11 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>37452</v>
+        <v>37808</v>
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>FCIU2148070</t>
+          <t>FSCU3374359</t>
         </is>
       </c>
       <c r="C63" s="0" t="n">
@@ -7706,30 +7699,30 @@
       </c>
       <c r="I63" s="0" t="inlineStr">
         <is>
-          <t>MV,VASI SUN</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J63" s="0" t="inlineStr">
         <is>
-          <t>2018/2538</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K63" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L63" s="0" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="M63" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N63" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L63" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M63" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N63" s="4"/>
       <c r="O63" s="0" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P63" s="0" t="n">
         <v>0</v>
@@ -7743,21 +7736,21 @@
       <c r="S63" s="0"/>
       <c r="T63" s="0"/>
       <c r="U63" s="0" t="n">
-        <v>1471822</v>
+        <v>1474578</v>
       </c>
       <c r="V63" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W63" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X63" s="0" t="inlineStr">
         <is>
-          <t>LEFT DOOR TOP GASKET MISSING 3"</t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y63" s="0" t="inlineStr">
@@ -7778,11 +7771,11 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>37452</v>
+        <v>37809</v>
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>FCIU2148070</t>
+          <t>GATU0855875</t>
         </is>
       </c>
       <c r="C64" s="0" t="n">
@@ -7815,30 +7808,30 @@
       </c>
       <c r="I64" s="0" t="inlineStr">
         <is>
-          <t>MV,VASI SUN</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J64" s="0" t="inlineStr">
         <is>
-          <t>2018/2538</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K64" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L64" s="0" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="M64" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N64" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L64" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M64" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N64" s="4"/>
       <c r="O64" s="0" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P64" s="0" t="n">
         <v>0</v>
@@ -7852,21 +7845,21 @@
       <c r="S64" s="0"/>
       <c r="T64" s="0"/>
       <c r="U64" s="0" t="n">
-        <v>1471822</v>
+        <v>1474579</v>
       </c>
       <c r="V64" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W64" s="0" t="inlineStr">
         <is>
-          <t>Roof panel-(Roof panel)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X64" s="0" t="inlineStr">
         <is>
-          <t>ROOF PANEL RUSTED &amp; CORRODED,</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
         </is>
       </c>
       <c r="Y64" s="0" t="inlineStr">
@@ -7887,11 +7880,11 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>37467</v>
+        <v>37810</v>
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>CRXU3232266</t>
+          <t>TGHU2436691</t>
         </is>
       </c>
       <c r="C65" s="0" t="n">
@@ -7924,30 +7917,30 @@
       </c>
       <c r="I65" s="0" t="inlineStr">
         <is>
-          <t>MV,VASI SUN</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J65" s="0" t="inlineStr">
         <is>
-          <t>2018/2538</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K65" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L65" s="0" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="M65" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N65" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L65" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M65" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N65" s="4"/>
       <c r="O65" s="0" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P65" s="0" t="n">
         <v>0</v>
@@ -7961,7 +7954,7 @@
       <c r="S65" s="0"/>
       <c r="T65" s="0"/>
       <c r="U65" s="0" t="n">
-        <v>1471878</v>
+        <v>1474580</v>
       </c>
       <c r="V65" s="0" t="inlineStr">
         <is>
@@ -7975,7 +7968,7 @@
       </c>
       <c r="X65" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY SCRAP DUST &amp; SCRATCH</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
         </is>
       </c>
       <c r="Y65" s="0" t="inlineStr">
@@ -7996,11 +7989,11 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>37467</v>
+        <v>37811</v>
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>CRXU3232266</t>
+          <t>BHCU3036510</t>
         </is>
       </c>
       <c r="C66" s="0" t="n">
@@ -8033,30 +8026,30 @@
       </c>
       <c r="I66" s="0" t="inlineStr">
         <is>
-          <t>MV,VASI SUN</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J66" s="0" t="inlineStr">
         <is>
-          <t>2018/2538</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K66" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L66" s="0" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="M66" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N66" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L66" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M66" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N66" s="4"/>
       <c r="O66" s="0" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P66" s="0" t="n">
         <v>0</v>
@@ -8070,7 +8063,7 @@
       <c r="S66" s="0"/>
       <c r="T66" s="0"/>
       <c r="U66" s="0" t="n">
-        <v>1471878</v>
+        <v>1474581</v>
       </c>
       <c r="V66" s="0" t="inlineStr">
         <is>
@@ -8084,7 +8077,7 @@
       </c>
       <c r="X66" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD BROKEN 60'X60'</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
         </is>
       </c>
       <c r="Y66" s="0" t="inlineStr">
@@ -8105,11 +8098,11 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>37467</v>
+        <v>37812</v>
       </c>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>CRXU3232266</t>
+          <t>ECMU1312232</t>
         </is>
       </c>
       <c r="C67" s="0" t="n">
@@ -8142,30 +8135,30 @@
       </c>
       <c r="I67" s="0" t="inlineStr">
         <is>
-          <t>MV,VASI SUN</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J67" s="0" t="inlineStr">
         <is>
-          <t>2018/2538</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K67" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L67" s="0" t="d">
-        <v>2018-08-29T00:00:00</v>
-      </c>
-      <c r="M67" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N67" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L67" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M67" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N67" s="4"/>
       <c r="O67" s="0" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P67" s="0" t="n">
         <v>0</v>
@@ -8179,21 +8172,21 @@
       <c r="S67" s="0"/>
       <c r="T67" s="0"/>
       <c r="U67" s="0" t="n">
-        <v>1471878</v>
+        <v>1474582</v>
       </c>
       <c r="V67" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W67" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X67" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY &amp; SCRATCH</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
         </is>
       </c>
       <c r="Y67" s="0" t="inlineStr">
@@ -8214,11 +8207,11 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>37517</v>
+        <v>37812</v>
       </c>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>FSCU3422992</t>
+          <t>ECMU1312232</t>
         </is>
       </c>
       <c r="C68" s="0" t="n">
@@ -8251,30 +8244,30 @@
       </c>
       <c r="I68" s="0" t="inlineStr">
         <is>
-          <t>CAPE ARAXOS</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J68" s="0" t="inlineStr">
         <is>
-          <t>2018/1449</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K68" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L68" s="0" t="d">
-        <v>2018-08-31T00:00:00</v>
-      </c>
-      <c r="M68" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N68" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L68" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M68" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N68" s="4"/>
       <c r="O68" s="0" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P68" s="0" t="n">
         <v>0</v>
@@ -8288,21 +8281,21 @@
       <c r="S68" s="0"/>
       <c r="T68" s="0"/>
       <c r="U68" s="0" t="n">
-        <v>1472624</v>
+        <v>1474582</v>
       </c>
       <c r="V68" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W68" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X68" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL SPOT &amp; MUD DUST</t>
+          <t>LEFT DOOR LOCKBAR BENT 1 PCS,</t>
         </is>
       </c>
       <c r="Y68" s="0" t="inlineStr">
@@ -8323,11 +8316,11 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>37517</v>
+        <v>37813</v>
       </c>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>FSCU3422992</t>
+          <t>FSCU3538160</t>
         </is>
       </c>
       <c r="C69" s="0" t="n">
@@ -8360,30 +8353,30 @@
       </c>
       <c r="I69" s="0" t="inlineStr">
         <is>
-          <t>CAPE ARAXOS</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J69" s="0" t="inlineStr">
         <is>
-          <t>2018/1449</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K69" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L69" s="0" t="d">
-        <v>2018-08-31T00:00:00</v>
-      </c>
-      <c r="M69" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N69" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L69" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M69" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N69" s="4"/>
       <c r="O69" s="0" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P69" s="0" t="n">
         <v>0</v>
@@ -8397,21 +8390,21 @@
       <c r="S69" s="0"/>
       <c r="T69" s="0"/>
       <c r="U69" s="0" t="n">
-        <v>1472624</v>
+        <v>1474583</v>
       </c>
       <c r="V69" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W69" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X69" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
         </is>
       </c>
       <c r="Y69" s="0" t="inlineStr">
@@ -8432,11 +8425,11 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>37005</v>
+        <v>37814</v>
       </c>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>TDRU2270516</t>
+          <t>CLHU2491008</t>
         </is>
       </c>
       <c r="C70" s="0" t="n">
@@ -8469,30 +8462,30 @@
       </c>
       <c r="I70" s="0" t="inlineStr">
         <is>
-          <t>MV NOU KOLLAN</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J70" s="0" t="inlineStr">
         <is>
-          <t>2018/1901</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K70" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L70" s="0" t="d">
-        <v>2018-06-21T00:00:00</v>
-      </c>
-      <c r="M70" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N70" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L70" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M70" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N70" s="4"/>
       <c r="O70" s="0" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="P70" s="0" t="n">
         <v>0</v>
@@ -8506,7 +8499,7 @@
       <c r="S70" s="0"/>
       <c r="T70" s="0"/>
       <c r="U70" s="0" t="n">
-        <v>1442637</v>
+        <v>1474584</v>
       </c>
       <c r="V70" s="0" t="inlineStr">
         <is>
@@ -8520,7 +8513,7 @@
       </c>
       <c r="X70" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN  &amp; STONE DUST</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
         </is>
       </c>
       <c r="Y70" s="0" t="inlineStr">
@@ -8541,11 +8534,11 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>37005</v>
+        <v>37815</v>
       </c>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>TDRU2270516</t>
+          <t>EOLU2237895</t>
         </is>
       </c>
       <c r="C71" s="0" t="n">
@@ -8578,30 +8571,30 @@
       </c>
       <c r="I71" s="0" t="inlineStr">
         <is>
-          <t>MV NOU KOLLAN</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J71" s="0" t="inlineStr">
         <is>
-          <t>2018/1901</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K71" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L71" s="0" t="d">
-        <v>2018-06-21T00:00:00</v>
-      </c>
-      <c r="M71" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N71" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L71" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M71" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N71" s="4"/>
       <c r="O71" s="0" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="P71" s="0" t="n">
         <v>0</v>
@@ -8615,21 +8608,21 @@
       <c r="S71" s="0"/>
       <c r="T71" s="0"/>
       <c r="U71" s="0" t="n">
-        <v>1442637</v>
+        <v>1474585</v>
       </c>
       <c r="V71" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W71" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X71" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
         </is>
       </c>
       <c r="Y71" s="0" t="inlineStr">
@@ -8650,11 +8643,11 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>37005</v>
+        <v>37816</v>
       </c>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>TDRU2270516</t>
+          <t>UESU2312270</t>
         </is>
       </c>
       <c r="C72" s="0" t="n">
@@ -8687,30 +8680,30 @@
       </c>
       <c r="I72" s="0" t="inlineStr">
         <is>
-          <t>MV NOU KOLLAN</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J72" s="0" t="inlineStr">
         <is>
-          <t>2018/1901</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K72" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L72" s="0" t="d">
-        <v>2018-06-21T00:00:00</v>
-      </c>
-      <c r="M72" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N72" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L72" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M72" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N72" s="4"/>
       <c r="O72" s="0" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="P72" s="0" t="n">
         <v>0</v>
@@ -8724,21 +8717,21 @@
       <c r="S72" s="0"/>
       <c r="T72" s="0"/>
       <c r="U72" s="0" t="n">
-        <v>1442637</v>
+        <v>1474586</v>
       </c>
       <c r="V72" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W72" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X72" s="0" t="inlineStr">
         <is>
-          <t>LEFT DOOR BOTTOM GASKET LOOSE 8'</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
         </is>
       </c>
       <c r="Y72" s="0" t="inlineStr">
@@ -8759,11 +8752,11 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>37322</v>
+        <v>37816</v>
       </c>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>IPXU3645359</t>
+          <t>UESU2312270</t>
         </is>
       </c>
       <c r="C73" s="0" t="n">
@@ -8796,30 +8789,30 @@
       </c>
       <c r="I73" s="0" t="inlineStr">
         <is>
-          <t>OEL DELTA</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J73" s="0" t="inlineStr">
         <is>
-          <t>2018/2378</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K73" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L73" s="0" t="d">
-        <v>2018-08-18T00:00:00</v>
-      </c>
-      <c r="M73" s="0" t="inlineStr">
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L73" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M73" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N73" s="0"/>
+      <c r="N73" s="4"/>
       <c r="O73" s="0" t="n">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="P73" s="0" t="n">
         <v>0</v>
@@ -8833,21 +8826,21 @@
       <c r="S73" s="0"/>
       <c r="T73" s="0"/>
       <c r="U73" s="0" t="n">
-        <v>1469355</v>
+        <v>1474586</v>
       </c>
       <c r="V73" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W73" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X73" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY &amp; SCROW MISSING 2 PCS,</t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y73" s="0" t="inlineStr">
@@ -8868,19 +8861,19 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>37706</v>
+        <v>37817</v>
       </c>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>TGHU7029955</t>
+          <t>MAXU2414282</t>
         </is>
       </c>
       <c r="C74" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E74" s="0" t="inlineStr">
@@ -8905,30 +8898,30 @@
       </c>
       <c r="I74" s="0" t="inlineStr">
         <is>
-          <t>CAPE ARAXOS</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J74" s="0" t="inlineStr">
         <is>
-          <t>2018/1449</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K74" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L74" s="0" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="M74" s="0" t="inlineStr">
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L74" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M74" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N74" s="0"/>
+      <c r="N74" s="4"/>
       <c r="O74" s="0" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P74" s="0" t="n">
         <v>0</v>
@@ -8942,7 +8935,7 @@
       <c r="S74" s="0"/>
       <c r="T74" s="0"/>
       <c r="U74" s="0" t="n">
-        <v>1473995</v>
+        <v>1474587</v>
       </c>
       <c r="V74" s="0" t="inlineStr">
         <is>
@@ -8956,7 +8949,7 @@
       </c>
       <c r="X74" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
         </is>
       </c>
       <c r="Y74" s="0" t="inlineStr">
@@ -8977,19 +8970,19 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>37706</v>
+        <v>37817</v>
       </c>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>TGHU7029955</t>
+          <t>MAXU2414282</t>
         </is>
       </c>
       <c r="C75" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E75" s="0" t="inlineStr">
@@ -9014,30 +9007,30 @@
       </c>
       <c r="I75" s="0" t="inlineStr">
         <is>
-          <t>CAPE ARAXOS</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J75" s="0" t="inlineStr">
         <is>
-          <t>2018/1449</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K75" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L75" s="0" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="M75" s="0" t="inlineStr">
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L75" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M75" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N75" s="0"/>
+      <c r="N75" s="4"/>
       <c r="O75" s="0" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P75" s="0" t="n">
         <v>0</v>
@@ -9051,7 +9044,7 @@
       <c r="S75" s="0"/>
       <c r="T75" s="0"/>
       <c r="U75" s="0" t="n">
-        <v>1473995</v>
+        <v>1474587</v>
       </c>
       <c r="V75" s="0" t="inlineStr">
         <is>
@@ -9065,7 +9058,7 @@
       </c>
       <c r="X75" s="0" t="inlineStr">
         <is>
-          <t>RIGHT DOOR LOCKBAR BENT 1 PCS,</t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y75" s="0" t="inlineStr">
@@ -9086,19 +9079,19 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>37715</v>
+        <v>37818</v>
       </c>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>BHCU4934452</t>
+          <t>TTNU3773928</t>
         </is>
       </c>
       <c r="C76" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D76" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E76" s="0" t="inlineStr">
@@ -9123,30 +9116,30 @@
       </c>
       <c r="I76" s="0" t="inlineStr">
         <is>
-          <t>CAPE ARAXOS</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J76" s="0" t="inlineStr">
         <is>
-          <t>2018/1449</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K76" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L76" s="0" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="M76" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N76" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L76" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M76" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N76" s="4"/>
       <c r="O76" s="0" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P76" s="0" t="n">
         <v>0</v>
@@ -9160,7 +9153,7 @@
       <c r="S76" s="0"/>
       <c r="T76" s="0"/>
       <c r="U76" s="0" t="n">
-        <v>1474021</v>
+        <v>1474588</v>
       </c>
       <c r="V76" s="0" t="inlineStr">
         <is>
@@ -9174,7 +9167,7 @@
       </c>
       <c r="X76" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; OIL STAIN</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
         </is>
       </c>
       <c r="Y76" s="0" t="inlineStr">
@@ -9195,19 +9188,19 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>37715</v>
+        <v>37818</v>
       </c>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>BHCU4934452</t>
+          <t>TTNU3773928</t>
         </is>
       </c>
       <c r="C77" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D77" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E77" s="0" t="inlineStr">
@@ -9232,30 +9225,30 @@
       </c>
       <c r="I77" s="0" t="inlineStr">
         <is>
-          <t>CAPE ARAXOS</t>
+          <t>VASI STAR</t>
         </is>
       </c>
       <c r="J77" s="0" t="inlineStr">
         <is>
-          <t>2018/1449</t>
+          <t>2538/2018</t>
         </is>
       </c>
       <c r="K77" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L77" s="0" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="M77" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N77" s="0"/>
+          <t>IMPORT</t>
+        </is>
+      </c>
+      <c r="L77" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M77" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N77" s="4"/>
       <c r="O77" s="0" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P77" s="0" t="n">
         <v>0</v>
@@ -9269,7 +9262,7 @@
       <c r="S77" s="0"/>
       <c r="T77" s="0"/>
       <c r="U77" s="0" t="n">
-        <v>1474021</v>
+        <v>1474588</v>
       </c>
       <c r="V77" s="0" t="inlineStr">
         <is>
@@ -9283,7 +9276,7 @@
       </c>
       <c r="X77" s="0" t="inlineStr">
         <is>
-          <t>ROOF PANLE CORRODED HOLE 2" AT 04PLS</t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y77" s="0" t="inlineStr">
@@ -9304,11 +9297,11 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>37802</v>
+        <v>37819</v>
       </c>
       <c r="B78" s="0" t="inlineStr">
         <is>
-          <t>FSCU3579528</t>
+          <t>HLXU2312592</t>
         </is>
       </c>
       <c r="C78" s="0" t="n">
@@ -9354,15 +9347,15 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L78" s="0" t="d">
+      <c r="L78" s="4" t="d">
         <v>2018-09-04T00:00:00</v>
       </c>
-      <c r="M78" s="0" t="inlineStr">
+      <c r="M78" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N78" s="0"/>
+      <c r="N78" s="4"/>
       <c r="O78" s="0" t="n">
         <v>85</v>
       </c>
@@ -9378,7 +9371,7 @@
       <c r="S78" s="0"/>
       <c r="T78" s="0"/>
       <c r="U78" s="0" t="n">
-        <v>1474572</v>
+        <v>1474589</v>
       </c>
       <c r="V78" s="0" t="inlineStr">
         <is>
@@ -9413,11 +9406,11 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>37802</v>
+        <v>37820</v>
       </c>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>FSCU3579528</t>
+          <t>TLHU3227629</t>
         </is>
       </c>
       <c r="C79" s="0" t="n">
@@ -9463,15 +9456,15 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L79" s="0" t="d">
+      <c r="L79" s="4" t="d">
         <v>2018-09-04T00:00:00</v>
       </c>
-      <c r="M79" s="0" t="inlineStr">
+      <c r="M79" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N79" s="0"/>
+      <c r="N79" s="4"/>
       <c r="O79" s="0" t="n">
         <v>85</v>
       </c>
@@ -9487,21 +9480,21 @@
       <c r="S79" s="0"/>
       <c r="T79" s="0"/>
       <c r="U79" s="0" t="n">
-        <v>1474572</v>
+        <v>1474590</v>
       </c>
       <c r="V79" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W79" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X79" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
         </is>
       </c>
       <c r="Y79" s="0" t="inlineStr">
@@ -9522,11 +9515,11 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>37803</v>
+        <v>37821</v>
       </c>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>GESU2999199</t>
+          <t>PRSU2193280</t>
         </is>
       </c>
       <c r="C80" s="0" t="n">
@@ -9572,15 +9565,15 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L80" s="0" t="d">
+      <c r="L80" s="4" t="d">
         <v>2018-09-04T00:00:00</v>
       </c>
-      <c r="M80" s="0" t="inlineStr">
+      <c r="M80" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N80" s="0"/>
+      <c r="N80" s="4"/>
       <c r="O80" s="0" t="n">
         <v>85</v>
       </c>
@@ -9596,7 +9589,7 @@
       <c r="S80" s="0"/>
       <c r="T80" s="0"/>
       <c r="U80" s="0" t="n">
-        <v>1474573</v>
+        <v>1474592</v>
       </c>
       <c r="V80" s="0" t="inlineStr">
         <is>
@@ -9631,11 +9624,11 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>37803</v>
+        <v>37879</v>
       </c>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>GESU2999199</t>
+          <t>CRXU3284906</t>
         </is>
       </c>
       <c r="C81" s="0" t="n">
@@ -9681,17 +9674,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L81" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M81" s="0" t="inlineStr">
+      <c r="L81" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M81" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N81" s="0"/>
+      <c r="N81" s="4"/>
       <c r="O81" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P81" s="0" t="n">
         <v>0</v>
@@ -9705,21 +9698,21 @@
       <c r="S81" s="0"/>
       <c r="T81" s="0"/>
       <c r="U81" s="0" t="n">
-        <v>1474573</v>
+        <v>1475011</v>
       </c>
       <c r="V81" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W81" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X81" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  BITUMEN  STAIN</t>
         </is>
       </c>
       <c r="Y81" s="0" t="inlineStr">
@@ -9740,11 +9733,11 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>37804</v>
+        <v>37880</v>
       </c>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>YMLU3046415</t>
+          <t>GVDU2024337</t>
         </is>
       </c>
       <c r="C82" s="0" t="n">
@@ -9790,17 +9783,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L82" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M82" s="0" t="inlineStr">
+      <c r="L82" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M82" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N82" s="0"/>
+      <c r="N82" s="4"/>
       <c r="O82" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P82" s="0" t="n">
         <v>0</v>
@@ -9814,7 +9807,7 @@
       <c r="S82" s="0"/>
       <c r="T82" s="0"/>
       <c r="U82" s="0" t="n">
-        <v>1474574</v>
+        <v>1475012</v>
       </c>
       <c r="V82" s="0" t="inlineStr">
         <is>
@@ -9828,7 +9821,7 @@
       </c>
       <c r="X82" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  BITUMEN  STAIN</t>
         </is>
       </c>
       <c r="Y82" s="0" t="inlineStr">
@@ -9849,11 +9842,11 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
-        <v>37804</v>
+        <v>37880</v>
       </c>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>YMLU3046415</t>
+          <t>GVDU2024337</t>
         </is>
       </c>
       <c r="C83" s="0" t="n">
@@ -9899,17 +9892,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L83" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M83" s="0" t="inlineStr">
+      <c r="L83" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M83" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N83" s="0"/>
+      <c r="N83" s="4"/>
       <c r="O83" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P83" s="0" t="n">
         <v>0</v>
@@ -9923,7 +9916,7 @@
       <c r="S83" s="0"/>
       <c r="T83" s="0"/>
       <c r="U83" s="0" t="n">
-        <v>1474574</v>
+        <v>1475012</v>
       </c>
       <c r="V83" s="0" t="inlineStr">
         <is>
@@ -9937,7 +9930,7 @@
       </c>
       <c r="X83" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>INTERIRO PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y83" s="0" t="inlineStr">
@@ -9958,11 +9951,11 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
-        <v>37805</v>
+        <v>37881</v>
       </c>
       <c r="B84" s="0" t="inlineStr">
         <is>
-          <t>FSCU3439980</t>
+          <t>FCIU2433170</t>
         </is>
       </c>
       <c r="C84" s="0" t="n">
@@ -10008,17 +10001,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L84" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M84" s="0" t="inlineStr">
+      <c r="L84" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M84" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N84" s="0"/>
+      <c r="N84" s="4"/>
       <c r="O84" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P84" s="0" t="n">
         <v>0</v>
@@ -10032,7 +10025,7 @@
       <c r="S84" s="0"/>
       <c r="T84" s="0"/>
       <c r="U84" s="0" t="n">
-        <v>1474575</v>
+        <v>1475013</v>
       </c>
       <c r="V84" s="0" t="inlineStr">
         <is>
@@ -10046,7 +10039,7 @@
       </c>
       <c r="X84" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  BITUMEN  STAIN</t>
         </is>
       </c>
       <c r="Y84" s="0" t="inlineStr">
@@ -10067,11 +10060,11 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
-        <v>37805</v>
+        <v>37881</v>
       </c>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t>FSCU3439980</t>
+          <t>FCIU2433170</t>
         </is>
       </c>
       <c r="C85" s="0" t="n">
@@ -10117,17 +10110,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L85" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M85" s="0" t="inlineStr">
+      <c r="L85" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M85" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N85" s="0"/>
+      <c r="N85" s="4"/>
       <c r="O85" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P85" s="0" t="n">
         <v>0</v>
@@ -10141,7 +10134,7 @@
       <c r="S85" s="0"/>
       <c r="T85" s="0"/>
       <c r="U85" s="0" t="n">
-        <v>1474575</v>
+        <v>1475013</v>
       </c>
       <c r="V85" s="0" t="inlineStr">
         <is>
@@ -10155,7 +10148,7 @@
       </c>
       <c r="X85" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>INTERIRO PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y85" s="0" t="inlineStr">
@@ -10176,11 +10169,11 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>37806</v>
+        <v>37882</v>
       </c>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>GESU2095709</t>
+          <t>BHCU3030039</t>
         </is>
       </c>
       <c r="C86" s="0" t="n">
@@ -10226,17 +10219,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L86" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M86" s="0" t="inlineStr">
+      <c r="L86" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M86" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N86" s="0"/>
+      <c r="N86" s="4"/>
       <c r="O86" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P86" s="0" t="n">
         <v>0</v>
@@ -10250,7 +10243,7 @@
       <c r="S86" s="0"/>
       <c r="T86" s="0"/>
       <c r="U86" s="0" t="n">
-        <v>1474576</v>
+        <v>1475014</v>
       </c>
       <c r="V86" s="0" t="inlineStr">
         <is>
@@ -10264,7 +10257,7 @@
       </c>
       <c r="X86" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  BITUMEN  STAIN</t>
         </is>
       </c>
       <c r="Y86" s="0" t="inlineStr">
@@ -10285,11 +10278,11 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>37806</v>
+        <v>37882</v>
       </c>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>GESU2095709</t>
+          <t>BHCU3030039</t>
         </is>
       </c>
       <c r="C87" s="0" t="n">
@@ -10335,17 +10328,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L87" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M87" s="0" t="inlineStr">
+      <c r="L87" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M87" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N87" s="0"/>
+      <c r="N87" s="4"/>
       <c r="O87" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P87" s="0" t="n">
         <v>0</v>
@@ -10359,7 +10352,7 @@
       <c r="S87" s="0"/>
       <c r="T87" s="0"/>
       <c r="U87" s="0" t="n">
-        <v>1474576</v>
+        <v>1475014</v>
       </c>
       <c r="V87" s="0" t="inlineStr">
         <is>
@@ -10373,7 +10366,7 @@
       </c>
       <c r="X87" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>INTERIRO PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y87" s="0" t="inlineStr">
@@ -10394,11 +10387,11 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>37807</v>
+        <v>37883</v>
       </c>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>TGHU2833410</t>
+          <t>WHLU2583130</t>
         </is>
       </c>
       <c r="C88" s="0" t="n">
@@ -10444,17 +10437,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L88" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M88" s="0" t="inlineStr">
+      <c r="L88" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M88" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N88" s="0"/>
+      <c r="N88" s="4"/>
       <c r="O88" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P88" s="0" t="n">
         <v>0</v>
@@ -10468,7 +10461,7 @@
       <c r="S88" s="0"/>
       <c r="T88" s="0"/>
       <c r="U88" s="0" t="n">
-        <v>1474577</v>
+        <v>1475015</v>
       </c>
       <c r="V88" s="0" t="inlineStr">
         <is>
@@ -10482,7 +10475,7 @@
       </c>
       <c r="X88" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  BITUMEN  STAIN</t>
         </is>
       </c>
       <c r="Y88" s="0" t="inlineStr">
@@ -10503,11 +10496,11 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
-        <v>37808</v>
+        <v>37883</v>
       </c>
       <c r="B89" s="0" t="inlineStr">
         <is>
-          <t>FSCU3374359</t>
+          <t>WHLU2583130</t>
         </is>
       </c>
       <c r="C89" s="0" t="n">
@@ -10553,17 +10546,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L89" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M89" s="0" t="inlineStr">
+      <c r="L89" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M89" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N89" s="0"/>
+      <c r="N89" s="4"/>
       <c r="O89" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P89" s="0" t="n">
         <v>0</v>
@@ -10577,21 +10570,21 @@
       <c r="S89" s="0"/>
       <c r="T89" s="0"/>
       <c r="U89" s="0" t="n">
-        <v>1474578</v>
+        <v>1475015</v>
       </c>
       <c r="V89" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W89" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X89" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
+          <t>INTERIRO PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y89" s="0" t="inlineStr">
@@ -10612,11 +10605,11 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
-        <v>37808</v>
+        <v>37884</v>
       </c>
       <c r="B90" s="0" t="inlineStr">
         <is>
-          <t>FSCU3374359</t>
+          <t>WHLU2613511</t>
         </is>
       </c>
       <c r="C90" s="0" t="n">
@@ -10662,17 +10655,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L90" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M90" s="0" t="inlineStr">
+      <c r="L90" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M90" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N90" s="0"/>
+      <c r="N90" s="4"/>
       <c r="O90" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P90" s="0" t="n">
         <v>0</v>
@@ -10686,21 +10679,21 @@
       <c r="S90" s="0"/>
       <c r="T90" s="0"/>
       <c r="U90" s="0" t="n">
-        <v>1474578</v>
+        <v>1475016</v>
       </c>
       <c r="V90" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W90" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X90" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  BITUMEN  STAIN</t>
         </is>
       </c>
       <c r="Y90" s="0" t="inlineStr">
@@ -10721,11 +10714,11 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
-        <v>37809</v>
+        <v>37885</v>
       </c>
       <c r="B91" s="0" t="inlineStr">
         <is>
-          <t>GATU0855875</t>
+          <t>BHCU3056476</t>
         </is>
       </c>
       <c r="C91" s="0" t="n">
@@ -10771,17 +10764,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L91" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M91" s="0" t="inlineStr">
+      <c r="L91" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M91" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N91" s="0"/>
+      <c r="N91" s="4"/>
       <c r="O91" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P91" s="0" t="n">
         <v>0</v>
@@ -10795,7 +10788,7 @@
       <c r="S91" s="0"/>
       <c r="T91" s="0"/>
       <c r="U91" s="0" t="n">
-        <v>1474579</v>
+        <v>1475017</v>
       </c>
       <c r="V91" s="0" t="inlineStr">
         <is>
@@ -10809,7 +10802,7 @@
       </c>
       <c r="X91" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  BITUMEN  STAIN</t>
         </is>
       </c>
       <c r="Y91" s="0" t="inlineStr">
@@ -10830,11 +10823,11 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
-        <v>37810</v>
+        <v>37885</v>
       </c>
       <c r="B92" s="0" t="inlineStr">
         <is>
-          <t>TGHU2436691</t>
+          <t>BHCU3056476</t>
         </is>
       </c>
       <c r="C92" s="0" t="n">
@@ -10880,17 +10873,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L92" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M92" s="0" t="inlineStr">
+      <c r="L92" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M92" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N92" s="0"/>
+      <c r="N92" s="4"/>
       <c r="O92" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P92" s="0" t="n">
         <v>0</v>
@@ -10904,21 +10897,21 @@
       <c r="S92" s="0"/>
       <c r="T92" s="0"/>
       <c r="U92" s="0" t="n">
-        <v>1474580</v>
+        <v>1475017</v>
       </c>
       <c r="V92" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W92" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X92" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
+          <t>INTERIRO PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y92" s="0" t="inlineStr">
@@ -10939,11 +10932,11 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
-        <v>37811</v>
+        <v>37886</v>
       </c>
       <c r="B93" s="0" t="inlineStr">
         <is>
-          <t>BHCU3036510</t>
+          <t>FSCU7971537</t>
         </is>
       </c>
       <c r="C93" s="0" t="n">
@@ -10989,17 +10982,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L93" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M93" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N93" s="0"/>
+      <c r="L93" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M93" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N93" s="4"/>
       <c r="O93" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P93" s="0" t="n">
         <v>0</v>
@@ -11013,7 +11006,7 @@
       <c r="S93" s="0"/>
       <c r="T93" s="0"/>
       <c r="U93" s="0" t="n">
-        <v>1474581</v>
+        <v>1475018</v>
       </c>
       <c r="V93" s="0" t="inlineStr">
         <is>
@@ -11027,7 +11020,7 @@
       </c>
       <c r="X93" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  BITUMEN  STAIN</t>
         </is>
       </c>
       <c r="Y93" s="0" t="inlineStr">
@@ -11048,11 +11041,11 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
-        <v>37812</v>
+        <v>37886</v>
       </c>
       <c r="B94" s="0" t="inlineStr">
         <is>
-          <t>ECMU1312232</t>
+          <t>FSCU7971537</t>
         </is>
       </c>
       <c r="C94" s="0" t="n">
@@ -11098,17 +11091,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L94" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M94" s="0" t="inlineStr">
+      <c r="L94" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M94" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N94" s="0"/>
+      <c r="N94" s="4"/>
       <c r="O94" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P94" s="0" t="n">
         <v>0</v>
@@ -11122,21 +11115,21 @@
       <c r="S94" s="0"/>
       <c r="T94" s="0"/>
       <c r="U94" s="0" t="n">
-        <v>1474582</v>
+        <v>1475018</v>
       </c>
       <c r="V94" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W94" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X94" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; BITUMEN STAIN </t>
+          <t>INTERIRO PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y94" s="0" t="inlineStr">
@@ -11157,11 +11150,11 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="n">
-        <v>37812</v>
+        <v>37887</v>
       </c>
       <c r="B95" s="0" t="inlineStr">
         <is>
-          <t>ECMU1312232</t>
+          <t>GATU1124983</t>
         </is>
       </c>
       <c r="C95" s="0" t="n">
@@ -11207,17 +11200,17 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L95" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M95" s="0" t="inlineStr">
+      <c r="L95" s="4" t="d">
+        <v>2018-09-05T00:00:00</v>
+      </c>
+      <c r="M95" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N95" s="0"/>
+      <c r="N95" s="4"/>
       <c r="O95" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P95" s="0" t="n">
         <v>0</v>
@@ -11231,21 +11224,21 @@
       <c r="S95" s="0"/>
       <c r="T95" s="0"/>
       <c r="U95" s="0" t="n">
-        <v>1474582</v>
+        <v>1475019</v>
       </c>
       <c r="V95" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W95" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X95" s="0" t="inlineStr">
         <is>
-          <t>LEFT DOOR LOCKBAR BENT 1 PCS,</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; OIL STAIN</t>
         </is>
       </c>
       <c r="Y95" s="0" t="inlineStr">
@@ -11266,11 +11259,11 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
-        <v>37886</v>
+        <v>37888</v>
       </c>
       <c r="B96" s="0" t="inlineStr">
         <is>
-          <t>FSCU7971537</t>
+          <t>CLHU2870613</t>
         </is>
       </c>
       <c r="C96" s="0" t="n">
@@ -11316,15 +11309,15 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L96" s="0" t="d">
+      <c r="L96" s="4" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
-      <c r="M96" s="0" t="inlineStr">
+      <c r="M96" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N96" s="0"/>
+      <c r="N96" s="4"/>
       <c r="O96" s="0" t="n">
         <v>84</v>
       </c>
@@ -11340,7 +11333,7 @@
       <c r="S96" s="0"/>
       <c r="T96" s="0"/>
       <c r="U96" s="0" t="n">
-        <v>1475018</v>
+        <v>1475020</v>
       </c>
       <c r="V96" s="0" t="inlineStr">
         <is>
@@ -11375,11 +11368,11 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
-        <v>37886</v>
+        <v>37889</v>
       </c>
       <c r="B97" s="0" t="inlineStr">
         <is>
-          <t>FSCU7971537</t>
+          <t>YMLU3154960</t>
         </is>
       </c>
       <c r="C97" s="0" t="n">
@@ -11425,15 +11418,15 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L97" s="0" t="d">
+      <c r="L97" s="4" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
-      <c r="M97" s="0" t="inlineStr">
+      <c r="M97" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N97" s="0"/>
+      <c r="N97" s="4"/>
       <c r="O97" s="0" t="n">
         <v>84</v>
       </c>
@@ -11449,21 +11442,21 @@
       <c r="S97" s="0"/>
       <c r="T97" s="0"/>
       <c r="U97" s="0" t="n">
-        <v>1475018</v>
+        <v>1475021</v>
       </c>
       <c r="V97" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W97" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X97" s="0" t="inlineStr">
         <is>
-          <t>INTERIRO PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  BITUMEN  STAIN</t>
         </is>
       </c>
       <c r="Y97" s="0" t="inlineStr">
@@ -11484,11 +11477,11 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
-        <v>37887</v>
+        <v>37890</v>
       </c>
       <c r="B98" s="0" t="inlineStr">
         <is>
-          <t>GATU1124983</t>
+          <t>GESU3273024</t>
         </is>
       </c>
       <c r="C98" s="0" t="n">
@@ -11534,15 +11527,15 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L98" s="0" t="d">
+      <c r="L98" s="4" t="d">
         <v>2018-09-05T00:00:00</v>
       </c>
-      <c r="M98" s="0" t="inlineStr">
+      <c r="M98" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N98" s="0"/>
+      <c r="N98" s="4"/>
       <c r="O98" s="0" t="n">
         <v>84</v>
       </c>
@@ -11558,7 +11551,7 @@
       <c r="S98" s="0"/>
       <c r="T98" s="0"/>
       <c r="U98" s="0" t="n">
-        <v>1475019</v>
+        <v>1475022</v>
       </c>
       <c r="V98" s="0" t="inlineStr">
         <is>
@@ -11572,7 +11565,7 @@
       </c>
       <c r="X98" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; OIL STAIN</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  BITUMEN  STAIN</t>
         </is>
       </c>
       <c r="Y98" s="0" t="inlineStr">
@@ -11593,11 +11586,11 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="n">
-        <v>37888</v>
+        <v>38064</v>
       </c>
       <c r="B99" s="0" t="inlineStr">
         <is>
-          <t>CLHU2870613</t>
+          <t>CTRU7962449</t>
         </is>
       </c>
       <c r="C99" s="0" t="n">
@@ -11605,7 +11598,7 @@
       </c>
       <c r="D99" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>OT</t>
         </is>
       </c>
       <c r="E99" s="0" t="inlineStr">
@@ -11630,30 +11623,30 @@
       </c>
       <c r="I99" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>CAPE ARAXOS</t>
         </is>
       </c>
       <c r="J99" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2018/1449</t>
         </is>
       </c>
       <c r="K99" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L99" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M99" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N99" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L99" s="4" t="d">
+        <v>2018-09-07T00:00:00</v>
+      </c>
+      <c r="M99" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N99" s="4"/>
       <c r="O99" s="0" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P99" s="0" t="n">
         <v>0</v>
@@ -11667,7 +11660,7 @@
       <c r="S99" s="0"/>
       <c r="T99" s="0"/>
       <c r="U99" s="0" t="n">
-        <v>1475020</v>
+        <v>1476016</v>
       </c>
       <c r="V99" s="0" t="inlineStr">
         <is>
@@ -11681,7 +11674,7 @@
       </c>
       <c r="X99" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  BITUMEN  STAIN</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; OIL STAIN</t>
         </is>
       </c>
       <c r="Y99" s="0" t="inlineStr">
@@ -11702,11 +11695,11 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="n">
-        <v>37889</v>
+        <v>38064</v>
       </c>
       <c r="B100" s="0" t="inlineStr">
         <is>
-          <t>YMLU3154960</t>
+          <t>CTRU7962449</t>
         </is>
       </c>
       <c r="C100" s="0" t="n">
@@ -11714,7 +11707,7 @@
       </c>
       <c r="D100" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>OT</t>
         </is>
       </c>
       <c r="E100" s="0" t="inlineStr">
@@ -11739,30 +11732,30 @@
       </c>
       <c r="I100" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>CAPE ARAXOS</t>
         </is>
       </c>
       <c r="J100" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2018/1449</t>
         </is>
       </c>
       <c r="K100" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L100" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M100" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N100" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L100" s="4" t="d">
+        <v>2018-09-07T00:00:00</v>
+      </c>
+      <c r="M100" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N100" s="4"/>
       <c r="O100" s="0" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P100" s="0" t="n">
         <v>0</v>
@@ -11776,21 +11769,21 @@
       <c r="S100" s="0"/>
       <c r="T100" s="0"/>
       <c r="U100" s="0" t="n">
-        <v>1475021</v>
+        <v>1476016</v>
       </c>
       <c r="V100" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W100" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X100" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  BITUMEN  STAIN</t>
+          <t>ROOF BAR 10PCS,TARPULIN 01 PC,CORD 01 PC TARPULIN CUT VARIOUS PLS </t>
         </is>
       </c>
       <c r="Y100" s="0" t="inlineStr">
@@ -11811,11 +11804,11 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="n">
-        <v>37890</v>
+        <v>38749</v>
       </c>
       <c r="B101" s="0" t="inlineStr">
         <is>
-          <t>GESU3273024</t>
+          <t>FCIU2307568</t>
         </is>
       </c>
       <c r="C101" s="0" t="n">
@@ -11848,30 +11841,30 @@
       </c>
       <c r="I101" s="0" t="inlineStr">
         <is>
-          <t>VASI STAR</t>
+          <t>MV.X-PRESS NUPTSE</t>
         </is>
       </c>
       <c r="J101" s="0" t="inlineStr">
         <is>
-          <t>2538/2018</t>
+          <t>2018/2645</t>
         </is>
       </c>
       <c r="K101" s="0" t="inlineStr">
         <is>
-          <t>IMPORT</t>
-        </is>
-      </c>
-      <c r="L101" s="0" t="d">
-        <v>2018-09-05T00:00:00</v>
-      </c>
-      <c r="M101" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N101" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L101" s="4" t="d">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="M101" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N101" s="4"/>
       <c r="O101" s="0" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="P101" s="0" t="n">
         <v>0</v>
@@ -11885,7 +11878,7 @@
       <c r="S101" s="0"/>
       <c r="T101" s="0"/>
       <c r="U101" s="0" t="n">
-        <v>1475022</v>
+        <v>1478273</v>
       </c>
       <c r="V101" s="0" t="inlineStr">
         <is>
@@ -11894,12 +11887,12 @@
       </c>
       <c r="W101" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X101" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp;  BITUMEN  STAIN</t>
+          <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
       <c r="Y101" s="0" t="inlineStr">
@@ -11970,15 +11963,15 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L102" s="0" t="d">
+      <c r="L102" s="4" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="M102" s="0" t="inlineStr">
+      <c r="M102" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N102" s="0"/>
+      <c r="N102" s="4"/>
       <c r="O102" s="0" t="n">
         <v>77</v>
       </c>
@@ -11998,17 +11991,17 @@
       </c>
       <c r="V102" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W102" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X102" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY</t>
+          <t>LEFT DOOR BOTTOM GASKET MISSING 8"</t>
         </is>
       </c>
       <c r="Y102" s="0" t="inlineStr">
@@ -12022,115 +12015,6 @@
         </is>
       </c>
       <c r="AA102" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="0" t="n">
-        <v>38749</v>
-      </c>
-      <c r="B103" s="0" t="inlineStr">
-        <is>
-          <t>FCIU2307568</t>
-        </is>
-      </c>
-      <c r="C103" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D103" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="E103" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="F103" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="G103" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="H103" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I103" s="0" t="inlineStr">
-        <is>
-          <t>MV.X-PRESS NUPTSE</t>
-        </is>
-      </c>
-      <c r="J103" s="0" t="inlineStr">
-        <is>
-          <t>2018/2645</t>
-        </is>
-      </c>
-      <c r="K103" s="0" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L103" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="M103" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N103" s="0"/>
-      <c r="O103" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="P103" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
-      <c r="R103" s="0"/>
-      <c r="S103" s="0"/>
-      <c r="T103" s="0"/>
-      <c r="U103" s="0" t="n">
-        <v>1478273</v>
-      </c>
-      <c r="V103" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
-      <c r="W103" s="0" t="inlineStr">
-        <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="X103" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR BOTTOM GASKET MISSING 8"</t>
-        </is>
-      </c>
-      <c r="Y103" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z103" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA103" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -12157,23 +12041,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -12183,78 +12067,117 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>TRANSVISSION SHIPPING PVT LTD</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>TRANSVISSION SHIPPING PVT LTD</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Stock Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>ASB</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>TVL</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>20-GP</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -12270,32 +12193,32 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>20-GP</t>
+          <t>20-OT</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -12311,21 +12234,21 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>20-OT</t>
+          <t>40-HC</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
       </c>
@@ -12333,50 +12256,9 @@
         <v>0</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>ASB</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>TVL</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>40-HC</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" s="0" t="n">
         <v>6</v>
       </c>
     </row>
